--- a/LCOH modelling/output/facility_aggreg.xlsx
+++ b/LCOH modelling/output/facility_aggreg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU7"/>
+  <dimension ref="A1:DK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,135 +791,215 @@
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>scenario1best_ghg_emissions</t>
+          <t>baseline_noelec_ghg_emissions</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>scenario1worst_ghg_emissions</t>
+          <t>baseline_elec_ghg_emissions</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
+          <t>scenario1best_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>scenario1worst_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>scenario1best_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>scenario1worst_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>scenario2best_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>scenario2worst_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>scenario2best_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>scenario2worst_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>scenario3best_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>scenario3worst_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>scenario3best_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>scenario3worst_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>scenario4best_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>scenario4worst_noelec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>scenario4best_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>scenario4worst_elec_ghg_emissions</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
           <t>scenario1best_change_in_electricity_demand_kwh</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>scenario2best_capex</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>scenario2worst_capex</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>scenario2best_LCOH</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>scenario2worst_LCOH</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>scenario3best_opex</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>scenario3worst_opex</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>scenario3best_ghg_emissions</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>scenario3worst_ghg_emissions</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>scenario3best_change_in_electricity_demand_kwh</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>scenario3worst_change_in_electricity_demand_kwh</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>scenario3best_capex</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>scenario3worst_capex</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>scenario3best_LCOH</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>scenario3worst_LCOH</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>scenario4best_opex</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>scenario4worst_opex</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>scenario4best_ghg_emissions</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>scenario4worst_ghg_emissions</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>scenario4best_change_in_electricity_demand_kwh</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>scenario4worst_change_in_electricity_demand_kwh</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>scenario4best_capex</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>scenario4worst_capex</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>scenario4best_LCOH</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>scenario4worst_LCOH</t>
         </is>
@@ -1145,84 +1225,132 @@
         <v>1737534.405064463</v>
       </c>
       <c r="BU2" t="n">
-        <v>404063.8363647856</v>
+        <v>230299.4</v>
       </c>
       <c r="BV2" t="n">
-        <v>404063.8363647856</v>
+        <v>116206.8</v>
       </c>
       <c r="BW2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>230299.4</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>116206.8</v>
+      </c>
+      <c r="CM2" t="n">
         <v>509221067.2540556</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CN2" t="n">
         <v>19095790.02202708</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CO2" t="n">
         <v>63652633.40675694</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CP2" t="n">
         <v>22.62354632302686</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CQ2" t="n">
         <v>26.02128690426666</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CR2" t="n">
         <v>42163504.3686358</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CS2" t="n">
         <v>42163504.3686358</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CT2" t="n">
         <v>311855.58</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CU2" t="n">
         <v>311855.58</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CV2" t="n">
         <v>458298960.52865</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CW2" t="n">
         <v>458298960.52865</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CX2" t="n">
         <v>973885.2911233812</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CY2" t="n">
         <v>3437242.203964875</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CZ2" t="n">
         <v>24.32589516296075</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DA2" t="n">
         <v>24.47667483233207</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DB2" t="n">
         <v>33550469.72016276</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DC2" t="n">
         <v>34598921.89891785</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DD2" t="n">
         <v>124441.5210072317</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DE2" t="n">
         <v>128330.3185387077</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DF2" t="n">
         <v>364679018.6974214</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DG2" t="n">
         <v>376075238.0317158</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DH2" t="n">
         <v>17186211.01982437</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DI2" t="n">
         <v>57287370.06608125</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DJ2" t="n">
         <v>20.36119169072417</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DK2" t="n">
         <v>23.41915821384</v>
       </c>
     </row>
@@ -1446,84 +1574,132 @@
         <v>25383.93411148933</v>
       </c>
       <c r="BU3" t="n">
-        <v>2538.554051503892</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>2538.554051503892</v>
+        <v>3048.6</v>
       </c>
       <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>3048.6</v>
+      </c>
+      <c r="CM3" t="n">
         <v>7439296.730863676</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CN3" t="n">
         <v>278973.6274073878</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CO3" t="n">
         <v>929912.0913579596</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CP3" t="n">
         <v>20.26804843389834</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CQ3" t="n">
         <v>23.71442617989405</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CR3" t="n">
         <v>615973.7693155124</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CS3" t="n">
         <v>615973.7693155124</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CT3" t="n">
         <v>2743.74</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CU3" t="n">
         <v>2743.74</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CV3" t="n">
         <v>6695367.057777309</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CW3" t="n">
         <v>6695367.057777309</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CX3" t="n">
         <v>14227.65499777678</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CY3" t="n">
         <v>50215.25293332982</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CZ3" t="n">
         <v>24.32589516296076</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="DA3" t="n">
         <v>24.47667483233208</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="DB3" t="n">
         <v>436331.8659293241</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="DC3" t="n">
         <v>452760.0235320848</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="DD3" t="n">
         <v>1618.391680147994</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="DE3" t="n">
         <v>1679.325101840313</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="DF3" t="n">
         <v>4742737.673144828</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="DG3" t="n">
         <v>4921304.603609618</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DH3" t="n">
         <v>251076.2646666491</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="DI3" t="n">
         <v>836920.8822221636</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="DJ3" t="n">
         <v>18.24124359050851</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DK3" t="n">
         <v>21.34298356190465</v>
       </c>
     </row>
@@ -1747,84 +1923,132 @@
         <v>1801969.274561449</v>
       </c>
       <c r="BU4" t="n">
-        <v>180208.3310858037</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>180208.3310858037</v>
+        <v>221221.2</v>
       </c>
       <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>221221.2</v>
+      </c>
+      <c r="CM4" t="n">
         <v>528105063.4028475</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CN4" t="n">
         <v>19803939.87760678</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CO4" t="n">
         <v>66013132.92535594</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CP4" t="n">
         <v>20.26804843389834</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CQ4" t="n">
         <v>23.71442617989404</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CR4" t="n">
         <v>43727099.24975577</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CS4" t="n">
         <v>43727099.24975577</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CT4" t="n">
         <v>199099.08</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CU4" t="n">
         <v>199099.08</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CV4" t="n">
         <v>475294557.0625628</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CW4" t="n">
         <v>475294557.0625628</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CX4" t="n">
         <v>1010000.933757946</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CY4" t="n">
         <v>3564709.177969221</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CZ4" t="n">
         <v>24.32589516296075</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DA4" t="n">
         <v>24.47667483233208</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DB4" t="n">
         <v>30974576.77219665</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="DC4" t="n">
         <v>32140788.24705345</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="DD4" t="n">
         <v>114887.3168762515</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="DE4" t="n">
         <v>119212.8935658694</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="DF4" t="n">
         <v>336680182.3064853</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="DG4" t="n">
         <v>349356393.9897114</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="DH4" t="n">
         <v>17823545.88984611</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="DI4" t="n">
         <v>59411819.63282035</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="DJ4" t="n">
         <v>18.2412435905085</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DK4" t="n">
         <v>21.34298356190464</v>
       </c>
     </row>
@@ -2048,84 +2272,132 @@
         <v>1747776.570869665</v>
       </c>
       <c r="BU5" t="n">
-        <v>174788.7177620967</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>174788.7177620967</v>
+        <v>214266.6</v>
       </c>
       <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>214266.6</v>
+      </c>
+      <c r="CM5" t="n">
         <v>512222749.7457036</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CN5" t="n">
         <v>19208353.11546389</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CO5" t="n">
         <v>64027843.71821295</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CP5" t="n">
         <v>20.26804843389834</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CQ5" t="n">
         <v>23.71442617989405</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CR5" t="n">
         <v>42412043.67894426</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CS5" t="n">
         <v>42412043.67894426</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CT5" t="n">
         <v>192839.94</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CU5" t="n">
         <v>192839.94</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CV5" t="n">
         <v>461000474.7711333</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CW5" t="n">
         <v>461000474.7711333</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CX5" t="n">
         <v>979626.0088886581</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CY5" t="n">
         <v>3457503.560783499</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CZ5" t="n">
         <v>24.32589516296077</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DA5" t="n">
         <v>24.47667483233209</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DB5" t="n">
         <v>30043042.54201252</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="DC5" t="n">
         <v>31174181.19193769</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="DD5" t="n">
         <v>111432.1778739875</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="DE5" t="n">
         <v>115627.6664987611</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="DF5" t="n">
         <v>326554810.2392666</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="DG5" t="n">
         <v>338849795.5645401</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="DH5" t="n">
         <v>17287517.8039175</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="DI5" t="n">
         <v>57625059.34639166</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="DJ5" t="n">
         <v>18.24124359050851</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="DK5" t="n">
         <v>21.34298356190464</v>
       </c>
     </row>
@@ -2349,84 +2621,132 @@
         <v>20265.89979569555</v>
       </c>
       <c r="BU6" t="n">
-        <v>2026.718230821802</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>2026.718230821802</v>
+        <v>2451.8</v>
       </c>
       <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>2451.8</v>
+      </c>
+      <c r="CM6" t="n">
         <v>5939348.937637277</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CN6" t="n">
         <v>222725.5851613979</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CO6" t="n">
         <v>742418.6172046596</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CP6" t="n">
         <v>20.26804843389834</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CQ6" t="n">
         <v>23.71442617989404</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CR6" t="n">
         <v>491778.0920363665</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CS6" t="n">
         <v>491778.0920363665</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CT6" t="n">
         <v>2206.62</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CU6" t="n">
         <v>2206.62</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CV6" t="n">
         <v>5345414.043873549</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CW6" t="n">
         <v>5345414.043873549</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CX6" t="n">
         <v>11359.00484323129</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CY6" t="n">
         <v>40090.60532905162</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CZ6" t="n">
         <v>24.32589516296075</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="DA6" t="n">
         <v>24.47667483233208</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="DB6" t="n">
         <v>348356.4775166261</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="DC6" t="n">
         <v>361472.3087484267</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="DD6" t="n">
         <v>1292.083546861298</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="DE6" t="n">
         <v>1340.731270764208</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="DF6" t="n">
         <v>3786483.451267675</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="DG6" t="n">
         <v>3929046.83422203</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="DH6" t="n">
         <v>200453.0266452581</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="DI6" t="n">
         <v>668176.7554841937</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="DJ6" t="n">
         <v>18.24124359050851</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="DK6" t="n">
         <v>21.34298356190464</v>
       </c>
     </row>
@@ -2650,84 +2970,132 @@
         <v>1568039.200904636</v>
       </c>
       <c r="BU7" t="n">
-        <v>376208.0433109037</v>
+        <v>219394.2</v>
       </c>
       <c r="BV7" t="n">
-        <v>376208.0433109037</v>
+        <v>104000.2</v>
       </c>
       <c r="BW7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>104000.2</v>
+      </c>
+      <c r="CM7" t="n">
         <v>459546926.4110668</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CN7" t="n">
         <v>17233009.740415</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CO7" t="n">
         <v>57443365.80138335</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CP7" t="n">
         <v>22.62354632302687</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CQ7" t="n">
         <v>26.02128690426666</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CR7" t="n">
         <v>38050485.50683633</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CS7" t="n">
         <v>38050485.50683633</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CT7" t="n">
         <v>291054.96</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CU7" t="n">
         <v>291054.96</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CV7" t="n">
         <v>413592233.7699601</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CW7" t="n">
         <v>413592233.7699601</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CX7" t="n">
         <v>878883.4967611652</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CY7" t="n">
         <v>3101941.753274701</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CZ7" t="n">
         <v>24.32589516296076</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="DA7" t="n">
         <v>24.47667483233209</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="DB7" t="n">
         <v>30277646.05790781</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="DC7" t="n">
         <v>31223822.49721743</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="DD7" t="n">
         <v>112302.3420950895</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="DE7" t="n">
         <v>115811.7902855611</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="DF7" t="n">
         <v>329104848.4555197</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="DG7" t="n">
         <v>339389374.9697547</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="DH7" t="n">
         <v>15509708.7663735</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="DI7" t="n">
         <v>51699029.22124501</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="DJ7" t="n">
         <v>20.36119169072418</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="DK7" t="n">
         <v>23.41915821384</v>
       </c>
     </row>

--- a/LCOH modelling/output/facility_aggreg.xlsx
+++ b/LCOH modelling/output/facility_aggreg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK7"/>
+  <dimension ref="A1:DK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,14 +1010,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001995</v>
+        <v>1000857</v>
       </c>
       <c r="C2" t="n">
-        <v>322120</v>
+        <v>325193</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1026,46 +1026,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G2" t="n">
-        <v>4627135.490339107</v>
+        <v>1449575.951752733</v>
       </c>
       <c r="H2" t="n">
-        <v>346506.2</v>
+        <v>76914.5</v>
       </c>
       <c r="I2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2171918.006330579</v>
+        <v>1449575.951752733</v>
       </c>
       <c r="K2" t="n">
-        <v>13810457.18876349</v>
+        <v>8647084.656692613</v>
       </c>
       <c r="L2" t="n">
-        <v>13810457.18876349</v>
+        <v>8647084.656692613</v>
       </c>
       <c r="M2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="N2" t="n">
-        <v>509221067.2540556</v>
+        <v>339863020.1811534</v>
       </c>
       <c r="O2" t="n">
-        <v>63652.63340675694</v>
+        <v>42482.87752264418</v>
       </c>
       <c r="P2" t="n">
-        <v>1082094.767914868</v>
+        <v>722208.917884951</v>
       </c>
       <c r="Q2" t="n">
-        <v>3819158.004405417</v>
+        <v>2548972.651358651</v>
       </c>
       <c r="R2" t="n">
-        <v>46848338.18737311</v>
+        <v>31267397.85666611</v>
       </c>
       <c r="S2" t="n">
-        <v>173764.4363647856</v>
+        <v>115973.4149678221</v>
       </c>
       <c r="T2" t="n">
         <v>27.02877240328973</v>
@@ -1074,115 +1074,115 @@
         <v>27.19630536925786</v>
       </c>
       <c r="V2" t="n">
-        <v>1.218636363636364</v>
+        <v>1.608177570093458</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25671875</v>
+        <v>1.687009803921568</v>
       </c>
       <c r="X2" t="n">
-        <v>417861375.5907953</v>
+        <v>211334262.1495477</v>
       </c>
       <c r="Y2" t="n">
-        <v>38443246.55435317</v>
+        <v>19442752.11775839</v>
       </c>
       <c r="Z2" t="n">
-        <v>372888.6428207863</v>
+        <v>72114.80692463735</v>
       </c>
       <c r="AA2" t="n">
-        <v>405198909.6638016</v>
+        <v>201458829.3388212</v>
       </c>
       <c r="AB2" t="n">
-        <v>37278299.68906974</v>
+        <v>18534212.29917155</v>
       </c>
       <c r="AC2" t="n">
-        <v>368567.7566747019</v>
+        <v>68744.95613376645</v>
       </c>
       <c r="AD2" t="n">
-        <v>19095790.02202708</v>
+        <v>12744863.25679325</v>
       </c>
       <c r="AE2" t="n">
-        <v>63652633.40675694</v>
+        <v>42482877.52264418</v>
       </c>
       <c r="AF2" t="n">
-        <v>26.02128690426666</v>
+        <v>20.66201182980746</v>
       </c>
       <c r="AG2" t="n">
-        <v>22.62354632302686</v>
+        <v>17.151277888364</v>
       </c>
       <c r="AH2" t="n">
-        <v>4164421.941305196</v>
+        <v>1304618.356577459</v>
       </c>
       <c r="AI2" t="n">
-        <v>1954726.205697521</v>
+        <v>1304618.356577459</v>
       </c>
       <c r="AJ2" t="n">
-        <v>311855.58</v>
+        <v>69223.05</v>
       </c>
       <c r="AK2" t="n">
-        <v>156387.992728307</v>
+        <v>104376.0734710399</v>
       </c>
       <c r="AL2" t="n">
-        <v>12429411.46988714</v>
+        <v>7782376.191023352</v>
       </c>
       <c r="AM2" t="n">
-        <v>12429411.46988714</v>
+        <v>7782376.191023352</v>
       </c>
       <c r="AN2" t="n">
-        <v>1563780.964558017</v>
+        <v>1043694.685261968</v>
       </c>
       <c r="AO2" t="n">
-        <v>458298960.52865</v>
+        <v>305876718.1630381</v>
       </c>
       <c r="AP2" t="n">
-        <v>57287.37006608125</v>
+        <v>38234.58977037976</v>
       </c>
       <c r="AQ2" t="n">
-        <v>973885.2911233812</v>
+        <v>649988.0260964559</v>
       </c>
       <c r="AR2" t="n">
-        <v>42163504.3686358</v>
+        <v>28140658.0709995</v>
       </c>
       <c r="AS2" t="n">
-        <v>3437242.203964875</v>
+        <v>2294075.386222786</v>
       </c>
       <c r="AT2" t="n">
-        <v>311855.58</v>
+        <v>69223.05</v>
       </c>
       <c r="AU2" t="n">
         <v>24.32589516296075</v>
       </c>
       <c r="AV2" t="n">
-        <v>24.47667483233207</v>
+        <v>24.47667483233208</v>
       </c>
       <c r="AW2" t="n">
-        <v>376075238.0317158</v>
+        <v>190200835.9345929</v>
       </c>
       <c r="AX2" t="n">
-        <v>34598921.89891785</v>
+        <v>17498476.90598255</v>
       </c>
       <c r="AY2" t="n">
-        <v>128330.3185387077</v>
+        <v>64903.32623217361</v>
       </c>
       <c r="AZ2" t="n">
-        <v>364679018.6974214</v>
+        <v>181312946.4049391</v>
       </c>
       <c r="BA2" t="n">
-        <v>33550469.72016276</v>
+        <v>16680791.06925439</v>
       </c>
       <c r="BB2" t="n">
-        <v>124441.5210072317</v>
+        <v>61870.4605203898</v>
       </c>
       <c r="BC2" t="n">
-        <v>17186211.01982437</v>
+        <v>11470376.93111393</v>
       </c>
       <c r="BD2" t="n">
-        <v>57287370.06608125</v>
+        <v>38234589.77037976</v>
       </c>
       <c r="BE2" t="n">
-        <v>23.41915821384</v>
+        <v>18.59581064682671</v>
       </c>
       <c r="BF2" t="n">
-        <v>20.36119169072417</v>
+        <v>15.4361500995276</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
@@ -1192,166 +1192,166 @@
       </c>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="n">
-        <v>46848338.18737311</v>
+        <v>31267397.85666611</v>
       </c>
       <c r="BK2" t="n">
-        <v>46848338.18737311</v>
+        <v>31267397.85666611</v>
       </c>
       <c r="BL2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BM2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BN2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BO2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BP2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BR2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BS2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BT2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="BU2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="BW2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CA2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CE2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CH2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CI2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CL2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="CM2" t="n">
-        <v>509221067.2540556</v>
+        <v>339863020.1811534</v>
       </c>
       <c r="CN2" t="n">
-        <v>19095790.02202708</v>
+        <v>12744863.25679325</v>
       </c>
       <c r="CO2" t="n">
-        <v>63652633.40675694</v>
+        <v>42482877.52264418</v>
       </c>
       <c r="CP2" t="n">
-        <v>22.62354632302686</v>
+        <v>17.151277888364</v>
       </c>
       <c r="CQ2" t="n">
-        <v>26.02128690426666</v>
+        <v>20.66201182980746</v>
       </c>
       <c r="CR2" t="n">
-        <v>42163504.3686358</v>
+        <v>28140658.0709995</v>
       </c>
       <c r="CS2" t="n">
-        <v>42163504.3686358</v>
+        <v>28140658.0709995</v>
       </c>
       <c r="CT2" t="n">
-        <v>311855.58</v>
+        <v>69223.05</v>
       </c>
       <c r="CU2" t="n">
-        <v>311855.58</v>
+        <v>69223.05</v>
       </c>
       <c r="CV2" t="n">
-        <v>458298960.52865</v>
+        <v>305876718.1630381</v>
       </c>
       <c r="CW2" t="n">
-        <v>458298960.52865</v>
+        <v>305876718.1630381</v>
       </c>
       <c r="CX2" t="n">
-        <v>973885.2911233812</v>
+        <v>649988.0260964559</v>
       </c>
       <c r="CY2" t="n">
-        <v>3437242.203964875</v>
+        <v>2294075.386222786</v>
       </c>
       <c r="CZ2" t="n">
         <v>24.32589516296075</v>
       </c>
       <c r="DA2" t="n">
-        <v>24.47667483233207</v>
+        <v>24.47667483233208</v>
       </c>
       <c r="DB2" t="n">
-        <v>33550469.72016276</v>
+        <v>16680791.06925439</v>
       </c>
       <c r="DC2" t="n">
-        <v>34598921.89891785</v>
+        <v>17498476.90598255</v>
       </c>
       <c r="DD2" t="n">
-        <v>124441.5210072317</v>
+        <v>61870.4605203898</v>
       </c>
       <c r="DE2" t="n">
-        <v>128330.3185387077</v>
+        <v>64903.32623217361</v>
       </c>
       <c r="DF2" t="n">
-        <v>364679018.6974214</v>
+        <v>181312946.4049391</v>
       </c>
       <c r="DG2" t="n">
-        <v>376075238.0317158</v>
+        <v>190200835.9345929</v>
       </c>
       <c r="DH2" t="n">
-        <v>17186211.01982437</v>
+        <v>11470376.93111393</v>
       </c>
       <c r="DI2" t="n">
-        <v>57287370.06608125</v>
+        <v>38234589.77037976</v>
       </c>
       <c r="DJ2" t="n">
-        <v>20.36119169072417</v>
+        <v>15.4361500995276</v>
       </c>
       <c r="DK2" t="n">
-        <v>23.41915821384</v>
+        <v>18.59581064682671</v>
       </c>
     </row>
     <row r="3">
@@ -1359,14 +1359,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1005751</v>
+        <v>1000872</v>
       </c>
       <c r="C3" t="n">
-        <v>311313</v>
+        <v>325193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>GUARDIAN ENERGY LLC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1375,163 +1375,163 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>137.8</v>
+        <v>107</v>
       </c>
       <c r="G3" t="n">
-        <v>31729.91763936165</v>
+        <v>3479361.100640784</v>
       </c>
       <c r="H3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="J3" t="n">
-        <v>31729.91763936165</v>
+        <v>3479361.100640784</v>
       </c>
       <c r="K3" t="n">
-        <v>68712.55130582268</v>
+        <v>20755262.91124354</v>
       </c>
       <c r="L3" t="n">
-        <v>68712.55130582268</v>
+        <v>20755262.91124354</v>
       </c>
       <c r="M3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="N3" t="n">
-        <v>7439296.730863676</v>
+        <v>815760064.5449378</v>
       </c>
       <c r="O3" t="n">
-        <v>929.9120913579595</v>
+        <v>101970.0080681172</v>
       </c>
       <c r="P3" t="n">
-        <v>15808.50555308531</v>
+        <v>1733490.137157993</v>
       </c>
       <c r="Q3" t="n">
-        <v>55794.72548147757</v>
+        <v>6118200.484087033</v>
       </c>
       <c r="R3" t="n">
-        <v>684415.2992394582</v>
+        <v>75049925.93813428</v>
       </c>
       <c r="S3" t="n">
-        <v>2538.554051503892</v>
+        <v>278366.5031553607</v>
       </c>
       <c r="T3" t="n">
         <v>27.02877240328973</v>
       </c>
       <c r="U3" t="n">
-        <v>27.19630536925786</v>
+        <v>27.19630536925787</v>
       </c>
       <c r="V3" t="n">
-        <v>1.360486211901306</v>
+        <v>1.608177570093458</v>
       </c>
       <c r="W3" t="n">
-        <v>1.411709337349398</v>
+        <v>1.687009803921568</v>
       </c>
       <c r="X3" t="n">
-        <v>5468116.226232909</v>
+        <v>507257456.959514</v>
       </c>
       <c r="Y3" t="n">
-        <v>503066.6928134276</v>
+        <v>46667686.04027528</v>
       </c>
       <c r="Z3" t="n">
-        <v>1865.91677982257</v>
+        <v>173094.3823194747</v>
       </c>
       <c r="AA3" t="n">
-        <v>5269708.525716475</v>
+        <v>483553837.4754245</v>
       </c>
       <c r="AB3" t="n">
-        <v>484813.1843659157</v>
+        <v>44486953.04773906</v>
       </c>
       <c r="AC3" t="n">
-        <v>1798.212977942215</v>
+        <v>165005.8597811815</v>
       </c>
       <c r="AD3" t="n">
-        <v>278973.6274073878</v>
+        <v>30591002.42043517</v>
       </c>
       <c r="AE3" t="n">
-        <v>929912.0913579596</v>
+        <v>101970008.0681172</v>
       </c>
       <c r="AF3" t="n">
-        <v>23.71442617989405</v>
+        <v>20.66201182980746</v>
       </c>
       <c r="AG3" t="n">
-        <v>20.26804843389834</v>
+        <v>17.15127788836401</v>
       </c>
       <c r="AH3" t="n">
-        <v>28556.92587542549</v>
+        <v>3131424.990576706</v>
       </c>
       <c r="AI3" t="n">
-        <v>28556.92587542549</v>
+        <v>3131424.990576706</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2743.74</v>
+        <v>166153.41</v>
       </c>
       <c r="AK3" t="n">
-        <v>2284.698646353503</v>
+        <v>250529.8528398247</v>
       </c>
       <c r="AL3" t="n">
-        <v>61841.29617524042</v>
+        <v>18679736.62011918</v>
       </c>
       <c r="AM3" t="n">
-        <v>61841.29617524042</v>
+        <v>18679736.62011918</v>
       </c>
       <c r="AN3" t="n">
-        <v>22845.54070034039</v>
+        <v>2505139.992461365</v>
       </c>
       <c r="AO3" t="n">
-        <v>6695367.057777309</v>
+        <v>734184058.0904441</v>
       </c>
       <c r="AP3" t="n">
-        <v>836.9208822221636</v>
+        <v>91773.00726130551</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14227.65499777678</v>
+        <v>1560141.123442194</v>
       </c>
       <c r="AR3" t="n">
-        <v>615973.7693155124</v>
+        <v>67544933.34432085</v>
       </c>
       <c r="AS3" t="n">
-        <v>50215.25293332982</v>
+        <v>5506380.43567833</v>
       </c>
       <c r="AT3" t="n">
-        <v>2743.74</v>
+        <v>166153.41</v>
       </c>
       <c r="AU3" t="n">
         <v>24.32589516296076</v>
       </c>
       <c r="AV3" t="n">
-        <v>24.47667483233208</v>
+        <v>24.47667483233209</v>
       </c>
       <c r="AW3" t="n">
-        <v>4921304.603609618</v>
+        <v>456531711.2635626</v>
       </c>
       <c r="AX3" t="n">
-        <v>452760.0235320848</v>
+        <v>42000917.43624775</v>
       </c>
       <c r="AY3" t="n">
-        <v>1679.325101840313</v>
+        <v>155784.9440875272</v>
       </c>
       <c r="AZ3" t="n">
-        <v>4742737.673144828</v>
+        <v>435198453.7278821</v>
       </c>
       <c r="BA3" t="n">
-        <v>436331.8659293241</v>
+        <v>40038257.74296515</v>
       </c>
       <c r="BB3" t="n">
-        <v>1618.391680147994</v>
+        <v>148505.2738030633</v>
       </c>
       <c r="BC3" t="n">
-        <v>251076.2646666491</v>
+        <v>27531902.17839165</v>
       </c>
       <c r="BD3" t="n">
-        <v>836920.8822221636</v>
+        <v>91773007.26130551</v>
       </c>
       <c r="BE3" t="n">
-        <v>21.34298356190465</v>
+        <v>18.59581064682672</v>
       </c>
       <c r="BF3" t="n">
-        <v>18.24124359050851</v>
+        <v>15.43615009952761</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -1541,43 +1541,43 @@
       </c>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="n">
-        <v>684415.2992394582</v>
+        <v>75049925.93813428</v>
       </c>
       <c r="BK3" t="n">
-        <v>684415.2992394582</v>
+        <v>75049925.93813428</v>
       </c>
       <c r="BL3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BM3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BN3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BO3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BP3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BQ3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BR3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BS3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BT3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CD3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CH3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
@@ -1622,85 +1622,85 @@
         <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CL3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="CM3" t="n">
-        <v>7439296.730863676</v>
+        <v>815760064.5449378</v>
       </c>
       <c r="CN3" t="n">
-        <v>278973.6274073878</v>
+        <v>30591002.42043517</v>
       </c>
       <c r="CO3" t="n">
-        <v>929912.0913579596</v>
+        <v>101970008.0681172</v>
       </c>
       <c r="CP3" t="n">
-        <v>20.26804843389834</v>
+        <v>17.15127788836401</v>
       </c>
       <c r="CQ3" t="n">
-        <v>23.71442617989405</v>
+        <v>20.66201182980746</v>
       </c>
       <c r="CR3" t="n">
-        <v>615973.7693155124</v>
+        <v>67544933.34432085</v>
       </c>
       <c r="CS3" t="n">
-        <v>615973.7693155124</v>
+        <v>67544933.34432085</v>
       </c>
       <c r="CT3" t="n">
-        <v>2743.74</v>
+        <v>166153.41</v>
       </c>
       <c r="CU3" t="n">
-        <v>2743.74</v>
+        <v>166153.41</v>
       </c>
       <c r="CV3" t="n">
-        <v>6695367.057777309</v>
+        <v>734184058.0904441</v>
       </c>
       <c r="CW3" t="n">
-        <v>6695367.057777309</v>
+        <v>734184058.0904441</v>
       </c>
       <c r="CX3" t="n">
-        <v>14227.65499777678</v>
+        <v>1560141.123442194</v>
       </c>
       <c r="CY3" t="n">
-        <v>50215.25293332982</v>
+        <v>5506380.43567833</v>
       </c>
       <c r="CZ3" t="n">
         <v>24.32589516296076</v>
       </c>
       <c r="DA3" t="n">
-        <v>24.47667483233208</v>
+        <v>24.47667483233209</v>
       </c>
       <c r="DB3" t="n">
-        <v>436331.8659293241</v>
+        <v>40038257.74296515</v>
       </c>
       <c r="DC3" t="n">
-        <v>452760.0235320848</v>
+        <v>42000917.43624775</v>
       </c>
       <c r="DD3" t="n">
-        <v>1618.391680147994</v>
+        <v>148505.2738030633</v>
       </c>
       <c r="DE3" t="n">
-        <v>1679.325101840313</v>
+        <v>155784.9440875272</v>
       </c>
       <c r="DF3" t="n">
-        <v>4742737.673144828</v>
+        <v>435198453.7278821</v>
       </c>
       <c r="DG3" t="n">
-        <v>4921304.603609618</v>
+        <v>456531711.2635626</v>
       </c>
       <c r="DH3" t="n">
-        <v>251076.2646666491</v>
+        <v>27531902.17839165</v>
       </c>
       <c r="DI3" t="n">
-        <v>836920.8822221636</v>
+        <v>91773007.26130551</v>
       </c>
       <c r="DJ3" t="n">
-        <v>18.24124359050851</v>
+        <v>15.43615009952761</v>
       </c>
       <c r="DK3" t="n">
-        <v>21.34298356190465</v>
+        <v>18.59581064682672</v>
       </c>
     </row>
     <row r="4">
@@ -1708,14 +1708,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1006354</v>
+        <v>1001143</v>
       </c>
       <c r="C4" t="n">
-        <v>311313</v>
+        <v>325193</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1724,163 +1724,163 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>137.8</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
-        <v>2252461.59320181</v>
+        <v>1385501.787503168</v>
       </c>
       <c r="H4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>2252461.59320181</v>
+        <v>1385501.787503168</v>
       </c>
       <c r="K4" t="n">
-        <v>4601766.015648505</v>
+        <v>8330363.254163409</v>
       </c>
       <c r="L4" t="n">
-        <v>4601766.015648505</v>
+        <v>8330363.254163409</v>
       </c>
       <c r="M4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="N4" t="n">
-        <v>528105063.4028475</v>
+        <v>324840393.0803728</v>
       </c>
       <c r="O4" t="n">
-        <v>66013.13292535594</v>
+        <v>40605.0491350466</v>
       </c>
       <c r="P4" t="n">
-        <v>1122223.259731051</v>
+        <v>690285.8352957921</v>
       </c>
       <c r="Q4" t="n">
-        <v>3960787.975521356</v>
+        <v>2436302.948102796</v>
       </c>
       <c r="R4" t="n">
-        <v>48585665.83306197</v>
+        <v>29885316.1633943</v>
       </c>
       <c r="S4" t="n">
-        <v>180208.3310858037</v>
+        <v>110847.1574369586</v>
       </c>
       <c r="T4" t="n">
-        <v>27.02877240328972</v>
+        <v>27.02877240328974</v>
       </c>
       <c r="U4" t="n">
-        <v>27.19630536925786</v>
+        <v>27.19630536925787</v>
       </c>
       <c r="V4" t="n">
-        <v>1.360486211901306</v>
+        <v>1.608177570093458</v>
       </c>
       <c r="W4" t="n">
-        <v>1.411709337349398</v>
+        <v>1.687009803921568</v>
       </c>
       <c r="X4" t="n">
-        <v>388173771.0996794</v>
+        <v>201992863.9232886</v>
       </c>
       <c r="Y4" t="n">
-        <v>35711986.9411705</v>
+        <v>18583343.48094255</v>
       </c>
       <c r="Z4" t="n">
-        <v>132458.7706287438</v>
+        <v>68927.18782946139</v>
       </c>
       <c r="AA4" t="n">
-        <v>374089091.4516504</v>
+        <v>192553945.0483686</v>
       </c>
       <c r="AB4" t="n">
-        <v>34416196.41355184</v>
+        <v>17714962.94444991</v>
       </c>
       <c r="AC4" t="n">
-        <v>127652.5743069461</v>
+        <v>65706.29120191647</v>
       </c>
       <c r="AD4" t="n">
-        <v>19803939.87760678</v>
+        <v>12181514.74051398</v>
       </c>
       <c r="AE4" t="n">
-        <v>66013132.92535594</v>
+        <v>40605049.13504659</v>
       </c>
       <c r="AF4" t="n">
-        <v>23.71442617989404</v>
+        <v>20.66201182980745</v>
       </c>
       <c r="AG4" t="n">
-        <v>20.26804843389834</v>
+        <v>17.15127788836401</v>
       </c>
       <c r="AH4" t="n">
-        <v>2027215.433881629</v>
+        <v>1246951.608752851</v>
       </c>
       <c r="AI4" t="n">
-        <v>2027215.433881629</v>
+        <v>1246951.608752851</v>
       </c>
       <c r="AJ4" t="n">
-        <v>199099.08</v>
+        <v>66352.04999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>162187.4979772233</v>
+        <v>99762.44169326271</v>
       </c>
       <c r="AL4" t="n">
-        <v>4141589.414083655</v>
+        <v>7497326.928747068</v>
       </c>
       <c r="AM4" t="n">
-        <v>4141589.414083655</v>
+        <v>7497326.928747068</v>
       </c>
       <c r="AN4" t="n">
-        <v>1621772.347105304</v>
+        <v>997561.2870022807</v>
       </c>
       <c r="AO4" t="n">
-        <v>475294557.0625628</v>
+        <v>292356353.7723355</v>
       </c>
       <c r="AP4" t="n">
-        <v>59411.81963282035</v>
+        <v>36544.54422154194</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1010000.933757946</v>
+        <v>621257.251766213</v>
       </c>
       <c r="AR4" t="n">
-        <v>43727099.24975577</v>
+        <v>26896784.54705487</v>
       </c>
       <c r="AS4" t="n">
-        <v>3564709.177969221</v>
+        <v>2192672.653292516</v>
       </c>
       <c r="AT4" t="n">
-        <v>199099.08</v>
+        <v>66352.04999999999</v>
       </c>
       <c r="AU4" t="n">
-        <v>24.32589516296075</v>
+        <v>24.32589516296076</v>
       </c>
       <c r="AV4" t="n">
         <v>24.47667483233208</v>
       </c>
       <c r="AW4" t="n">
-        <v>349356393.9897114</v>
+        <v>181793577.5309598</v>
       </c>
       <c r="AX4" t="n">
-        <v>32140788.24705345</v>
+        <v>16725009.1328483</v>
       </c>
       <c r="AY4" t="n">
-        <v>119212.8935658694</v>
+        <v>62034.46904651525</v>
       </c>
       <c r="AZ4" t="n">
-        <v>336680182.3064853</v>
+        <v>173298550.5435318</v>
       </c>
       <c r="BA4" t="n">
-        <v>30974576.77219665</v>
+        <v>15943466.65000492</v>
       </c>
       <c r="BB4" t="n">
-        <v>114887.3168762515</v>
+        <v>59135.66208172483</v>
       </c>
       <c r="BC4" t="n">
-        <v>17823545.88984611</v>
+        <v>10963363.26646258</v>
       </c>
       <c r="BD4" t="n">
-        <v>59411819.63282035</v>
+        <v>36544544.22154194</v>
       </c>
       <c r="BE4" t="n">
-        <v>21.34298356190464</v>
+        <v>18.59581064682671</v>
       </c>
       <c r="BF4" t="n">
-        <v>18.2412435905085</v>
+        <v>15.43615009952761</v>
       </c>
       <c r="BG4" t="n">
         <v>0</v>
@@ -1890,43 +1890,43 @@
       </c>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="n">
-        <v>48585665.83306197</v>
+        <v>29885316.1633943</v>
       </c>
       <c r="BK4" t="n">
-        <v>48585665.83306197</v>
+        <v>29885316.1633943</v>
       </c>
       <c r="BL4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BM4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BN4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BO4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BP4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BR4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BS4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BT4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="BZ4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CD4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CH4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CI4" t="n">
         <v>0</v>
@@ -1971,85 +1971,85 @@
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CL4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="CM4" t="n">
-        <v>528105063.4028475</v>
+        <v>324840393.0803728</v>
       </c>
       <c r="CN4" t="n">
-        <v>19803939.87760678</v>
+        <v>12181514.74051398</v>
       </c>
       <c r="CO4" t="n">
-        <v>66013132.92535594</v>
+        <v>40605049.13504659</v>
       </c>
       <c r="CP4" t="n">
-        <v>20.26804843389834</v>
+        <v>17.15127788836401</v>
       </c>
       <c r="CQ4" t="n">
-        <v>23.71442617989404</v>
+        <v>20.66201182980745</v>
       </c>
       <c r="CR4" t="n">
-        <v>43727099.24975577</v>
+        <v>26896784.54705487</v>
       </c>
       <c r="CS4" t="n">
-        <v>43727099.24975577</v>
+        <v>26896784.54705487</v>
       </c>
       <c r="CT4" t="n">
-        <v>199099.08</v>
+        <v>66352.04999999999</v>
       </c>
       <c r="CU4" t="n">
-        <v>199099.08</v>
+        <v>66352.04999999999</v>
       </c>
       <c r="CV4" t="n">
-        <v>475294557.0625628</v>
+        <v>292356353.7723355</v>
       </c>
       <c r="CW4" t="n">
-        <v>475294557.0625628</v>
+        <v>292356353.7723355</v>
       </c>
       <c r="CX4" t="n">
-        <v>1010000.933757946</v>
+        <v>621257.251766213</v>
       </c>
       <c r="CY4" t="n">
-        <v>3564709.177969221</v>
+        <v>2192672.653292516</v>
       </c>
       <c r="CZ4" t="n">
-        <v>24.32589516296075</v>
+        <v>24.32589516296076</v>
       </c>
       <c r="DA4" t="n">
         <v>24.47667483233208</v>
       </c>
       <c r="DB4" t="n">
-        <v>30974576.77219665</v>
+        <v>15943466.65000492</v>
       </c>
       <c r="DC4" t="n">
-        <v>32140788.24705345</v>
+        <v>16725009.1328483</v>
       </c>
       <c r="DD4" t="n">
-        <v>114887.3168762515</v>
+        <v>59135.66208172483</v>
       </c>
       <c r="DE4" t="n">
-        <v>119212.8935658694</v>
+        <v>62034.46904651525</v>
       </c>
       <c r="DF4" t="n">
-        <v>336680182.3064853</v>
+        <v>173298550.5435318</v>
       </c>
       <c r="DG4" t="n">
-        <v>349356393.9897114</v>
+        <v>181793577.5309598</v>
       </c>
       <c r="DH4" t="n">
-        <v>17823545.88984611</v>
+        <v>10963363.26646258</v>
       </c>
       <c r="DI4" t="n">
-        <v>59411819.63282035</v>
+        <v>36544544.22154194</v>
       </c>
       <c r="DJ4" t="n">
-        <v>18.2412435905085</v>
+        <v>15.43615009952761</v>
       </c>
       <c r="DK4" t="n">
-        <v>21.34298356190464</v>
+        <v>18.59581064682671</v>
       </c>
     </row>
     <row r="5">
@@ -2057,14 +2057,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1006877</v>
+        <v>1001995</v>
       </c>
       <c r="C5" t="n">
-        <v>311313</v>
+        <v>322120</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>SAPPI CLOQUET LLC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2073,163 +2073,163 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>137.8</v>
+        <v>165</v>
       </c>
       <c r="G5" t="n">
-        <v>2184720.713587081</v>
+        <v>4627528.364523933</v>
       </c>
       <c r="H5" t="n">
-        <v>214266.6</v>
+        <v>346530.9</v>
       </c>
       <c r="I5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2184720.713587081</v>
+        <v>2172310.880515404</v>
       </c>
       <c r="K5" t="n">
-        <v>4459643.861231745</v>
+        <v>13814004.12762146</v>
       </c>
       <c r="L5" t="n">
-        <v>4459643.861231745</v>
+        <v>13814004.12762146</v>
       </c>
       <c r="M5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="N5" t="n">
-        <v>512222749.7457036</v>
+        <v>509313179.3002334</v>
       </c>
       <c r="O5" t="n">
-        <v>64027.84371821295</v>
+        <v>63664.14741252917</v>
       </c>
       <c r="P5" t="n">
-        <v>1088473.34320962</v>
+        <v>1082290.506012996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3841670.623092777</v>
+        <v>3819848.84475175</v>
       </c>
       <c r="R5" t="n">
-        <v>47124492.97660474</v>
+        <v>46856812.49562147</v>
       </c>
       <c r="S5" t="n">
-        <v>174788.7177620967</v>
+        <v>173795.8682885919</v>
       </c>
       <c r="T5" t="n">
-        <v>27.02877240328974</v>
+        <v>27.02877240328973</v>
       </c>
       <c r="U5" t="n">
-        <v>27.19630536925788</v>
+        <v>27.19630536925786</v>
       </c>
       <c r="V5" t="n">
-        <v>1.360486211901306</v>
+        <v>1.218636363636364</v>
       </c>
       <c r="W5" t="n">
-        <v>1.411709337349398</v>
+        <v>1.25671875</v>
       </c>
       <c r="X5" t="n">
-        <v>376499772.849489</v>
+        <v>417936961.7532687</v>
       </c>
       <c r="Y5" t="n">
-        <v>34637979.10215299</v>
+        <v>38450200.48130072</v>
       </c>
       <c r="Z5" t="n">
-        <v>128475.1849986234</v>
+        <v>372914.4355221567</v>
       </c>
       <c r="AA5" t="n">
-        <v>362838678.0436295</v>
+        <v>405272205.336503</v>
       </c>
       <c r="AB5" t="n">
-        <v>33381158.38001392</v>
+        <v>37285042.89095828</v>
       </c>
       <c r="AC5" t="n">
-        <v>123813.5309710972</v>
+        <v>368592.7677790611</v>
       </c>
       <c r="AD5" t="n">
-        <v>19208353.11546389</v>
+        <v>19099244.22375875</v>
       </c>
       <c r="AE5" t="n">
-        <v>64027843.71821295</v>
+        <v>63664147.41252917</v>
       </c>
       <c r="AF5" t="n">
-        <v>23.71442617989405</v>
+        <v>26.02128690426666</v>
       </c>
       <c r="AG5" t="n">
-        <v>20.26804843389834</v>
+        <v>22.62354632302686</v>
       </c>
       <c r="AH5" t="n">
-        <v>1966248.642228373</v>
+        <v>4164775.52807154</v>
       </c>
       <c r="AI5" t="n">
-        <v>1966248.642228373</v>
+        <v>1955079.792463864</v>
       </c>
       <c r="AJ5" t="n">
-        <v>192839.94</v>
+        <v>311877.8100000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>157309.845985887</v>
+        <v>156416.2814597327</v>
       </c>
       <c r="AL5" t="n">
-        <v>4013679.475108571</v>
+        <v>12432603.71485931</v>
       </c>
       <c r="AM5" t="n">
-        <v>4013679.475108571</v>
+        <v>12432603.71485931</v>
       </c>
       <c r="AN5" t="n">
-        <v>1572998.913782698</v>
+        <v>1564063.833971091</v>
       </c>
       <c r="AO5" t="n">
-        <v>461000474.7711333</v>
+        <v>458381861.3702101</v>
       </c>
       <c r="AP5" t="n">
-        <v>57625.05934639165</v>
+        <v>57297.73267127626</v>
       </c>
       <c r="AQ5" t="n">
-        <v>979626.0088886581</v>
+        <v>974061.4554116963</v>
       </c>
       <c r="AR5" t="n">
-        <v>42412043.67894426</v>
+        <v>42171131.24605932</v>
       </c>
       <c r="AS5" t="n">
-        <v>3457503.560783499</v>
+        <v>3437863.960276576</v>
       </c>
       <c r="AT5" t="n">
-        <v>192839.94</v>
+        <v>311877.8100000001</v>
       </c>
       <c r="AU5" t="n">
-        <v>24.32589516296077</v>
+        <v>24.32589516296076</v>
       </c>
       <c r="AV5" t="n">
-        <v>24.47667483233209</v>
+        <v>24.47667483233208</v>
       </c>
       <c r="AW5" t="n">
-        <v>338849795.5645401</v>
+        <v>376143265.5779419</v>
       </c>
       <c r="AX5" t="n">
-        <v>31174181.19193769</v>
+        <v>34605180.43317065</v>
       </c>
       <c r="AY5" t="n">
-        <v>115627.6664987611</v>
+        <v>128353.531969941</v>
       </c>
       <c r="AZ5" t="n">
-        <v>326554810.2392666</v>
+        <v>364744984.8028527</v>
       </c>
       <c r="BA5" t="n">
-        <v>30043042.54201252</v>
+        <v>33556538.60186245</v>
       </c>
       <c r="BB5" t="n">
-        <v>111432.1778739875</v>
+        <v>124464.0310011549</v>
       </c>
       <c r="BC5" t="n">
-        <v>17287517.8039175</v>
+        <v>17189319.80138288</v>
       </c>
       <c r="BD5" t="n">
-        <v>57625059.34639166</v>
+        <v>57297732.67127626</v>
       </c>
       <c r="BE5" t="n">
-        <v>21.34298356190464</v>
+        <v>23.41915821384</v>
       </c>
       <c r="BF5" t="n">
-        <v>18.24124359050851</v>
+        <v>20.36119169072418</v>
       </c>
       <c r="BG5" t="n">
         <v>0</v>
@@ -2239,166 +2239,166 @@
       </c>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="n">
-        <v>47124492.97660474</v>
+        <v>46856812.49562147</v>
       </c>
       <c r="BK5" t="n">
-        <v>47124492.97660474</v>
+        <v>46856812.49562147</v>
       </c>
       <c r="BL5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BM5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BN5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BO5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BP5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BR5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BS5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BT5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="BV5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="BY5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="BZ5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="CC5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CD5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="CG5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CH5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
       <c r="CK5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CL5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="CM5" t="n">
-        <v>512222749.7457036</v>
+        <v>509313179.3002334</v>
       </c>
       <c r="CN5" t="n">
-        <v>19208353.11546389</v>
+        <v>19099244.22375875</v>
       </c>
       <c r="CO5" t="n">
-        <v>64027843.71821295</v>
+        <v>63664147.41252917</v>
       </c>
       <c r="CP5" t="n">
-        <v>20.26804843389834</v>
+        <v>22.62354632302686</v>
       </c>
       <c r="CQ5" t="n">
-        <v>23.71442617989405</v>
+        <v>26.02128690426666</v>
       </c>
       <c r="CR5" t="n">
-        <v>42412043.67894426</v>
+        <v>42171131.24605932</v>
       </c>
       <c r="CS5" t="n">
-        <v>42412043.67894426</v>
+        <v>42171131.24605932</v>
       </c>
       <c r="CT5" t="n">
-        <v>192839.94</v>
+        <v>311877.8100000001</v>
       </c>
       <c r="CU5" t="n">
-        <v>192839.94</v>
+        <v>311877.8100000001</v>
       </c>
       <c r="CV5" t="n">
-        <v>461000474.7711333</v>
+        <v>458381861.3702101</v>
       </c>
       <c r="CW5" t="n">
-        <v>461000474.7711333</v>
+        <v>458381861.3702101</v>
       </c>
       <c r="CX5" t="n">
-        <v>979626.0088886581</v>
+        <v>974061.4554116963</v>
       </c>
       <c r="CY5" t="n">
-        <v>3457503.560783499</v>
+        <v>3437863.960276576</v>
       </c>
       <c r="CZ5" t="n">
-        <v>24.32589516296077</v>
+        <v>24.32589516296076</v>
       </c>
       <c r="DA5" t="n">
-        <v>24.47667483233209</v>
+        <v>24.47667483233208</v>
       </c>
       <c r="DB5" t="n">
-        <v>30043042.54201252</v>
+        <v>33556538.60186245</v>
       </c>
       <c r="DC5" t="n">
-        <v>31174181.19193769</v>
+        <v>34605180.43317065</v>
       </c>
       <c r="DD5" t="n">
-        <v>111432.1778739875</v>
+        <v>124464.0310011549</v>
       </c>
       <c r="DE5" t="n">
-        <v>115627.6664987611</v>
+        <v>128353.531969941</v>
       </c>
       <c r="DF5" t="n">
-        <v>326554810.2392666</v>
+        <v>364744984.8028527</v>
       </c>
       <c r="DG5" t="n">
-        <v>338849795.5645401</v>
+        <v>376143265.5779419</v>
       </c>
       <c r="DH5" t="n">
-        <v>17287517.8039175</v>
+        <v>17189319.80138288</v>
       </c>
       <c r="DI5" t="n">
-        <v>57625059.34639166</v>
+        <v>57297732.67127626</v>
       </c>
       <c r="DJ5" t="n">
-        <v>18.24124359050851</v>
+        <v>20.36119169072418</v>
       </c>
       <c r="DK5" t="n">
-        <v>21.34298356190464</v>
+        <v>23.41915821384</v>
       </c>
     </row>
     <row r="6">
@@ -2406,14 +2406,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1007098</v>
+        <v>1002173</v>
       </c>
       <c r="C6" t="n">
-        <v>311313</v>
+        <v>325193</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>GRANITE FALLS ENERGY LLC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2422,163 +2422,163 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>137.8</v>
+        <v>107</v>
       </c>
       <c r="G6" t="n">
-        <v>25332.37474461944</v>
+        <v>1510412.740294007</v>
       </c>
       <c r="H6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="J6" t="n">
-        <v>25332.37474461944</v>
+        <v>1510412.740294007</v>
       </c>
       <c r="K6" t="n">
-        <v>55948.01333032941</v>
+        <v>9009991.381325858</v>
       </c>
       <c r="L6" t="n">
-        <v>55948.01333032941</v>
+        <v>9009991.381325858</v>
       </c>
       <c r="M6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="N6" t="n">
-        <v>5939348.937637277</v>
+        <v>354126622.3516774</v>
       </c>
       <c r="O6" t="n">
-        <v>742.4186172046597</v>
+        <v>44265.82779395967</v>
       </c>
       <c r="P6" t="n">
-        <v>12621.11649247921</v>
+        <v>752519.0724973143</v>
       </c>
       <c r="Q6" t="n">
-        <v>44545.11703227958</v>
+        <v>2655949.66763758</v>
       </c>
       <c r="R6" t="n">
-        <v>546420.1022626294</v>
+        <v>32579649.25635432</v>
       </c>
       <c r="S6" t="n">
-        <v>2026.718230821802</v>
+        <v>120840.6660520277</v>
       </c>
       <c r="T6" t="n">
         <v>27.02877240328973</v>
       </c>
       <c r="U6" t="n">
-        <v>27.19630536925787</v>
+        <v>27.19630536925786</v>
       </c>
       <c r="V6" t="n">
-        <v>1.360486211901306</v>
+        <v>1.608177570093458</v>
       </c>
       <c r="W6" t="n">
-        <v>1.411709337349398</v>
+        <v>1.687009803921568</v>
       </c>
       <c r="X6" t="n">
-        <v>4365607.593580033</v>
+        <v>220203682.0667121</v>
       </c>
       <c r="Y6" t="n">
-        <v>401635.898609363</v>
+        <v>20258738.75013751</v>
       </c>
       <c r="Z6" t="n">
-        <v>1489.701411960231</v>
+        <v>75141.37014422182</v>
       </c>
       <c r="AA6" t="n">
-        <v>4207203.834741861</v>
+        <v>209913790.3813517</v>
       </c>
       <c r="AB6" t="n">
-        <v>387062.7527962512</v>
+        <v>19312068.71508436</v>
       </c>
       <c r="AC6" t="n">
-        <v>1435.648385401441</v>
+        <v>71630.09116551986</v>
       </c>
       <c r="AD6" t="n">
-        <v>222725.5851613979</v>
+        <v>13279748.3381879</v>
       </c>
       <c r="AE6" t="n">
-        <v>742418.6172046596</v>
+        <v>44265827.79395967</v>
       </c>
       <c r="AF6" t="n">
-        <v>23.71442617989404</v>
+        <v>20.66201182980745</v>
       </c>
       <c r="AG6" t="n">
-        <v>20.26804843389834</v>
+        <v>17.151277888364</v>
       </c>
       <c r="AH6" t="n">
-        <v>22799.13727015749</v>
+        <v>1359371.466264606</v>
       </c>
       <c r="AI6" t="n">
-        <v>22799.13727015749</v>
+        <v>1359371.466264606</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2206.62</v>
+        <v>72128.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>1824.046407739622</v>
+        <v>108756.599446825</v>
       </c>
       <c r="AL6" t="n">
-        <v>50353.21199729646</v>
+        <v>8108992.243193273</v>
       </c>
       <c r="AM6" t="n">
-        <v>50353.21199729646</v>
+        <v>8108992.243193273</v>
       </c>
       <c r="AN6" t="n">
-        <v>18239.30981612599</v>
+        <v>1087497.173011685</v>
       </c>
       <c r="AO6" t="n">
-        <v>5345414.043873549</v>
+        <v>318713960.1165096</v>
       </c>
       <c r="AP6" t="n">
-        <v>668.1767554841937</v>
+        <v>39839.2450145637</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11359.00484323129</v>
+        <v>677267.1652475828</v>
       </c>
       <c r="AR6" t="n">
-        <v>491778.0920363665</v>
+        <v>29321684.33071888</v>
       </c>
       <c r="AS6" t="n">
-        <v>40090.60532905162</v>
+        <v>2390354.700873822</v>
       </c>
       <c r="AT6" t="n">
-        <v>2206.62</v>
+        <v>72128.25</v>
       </c>
       <c r="AU6" t="n">
         <v>24.32589516296075</v>
       </c>
       <c r="AV6" t="n">
-        <v>24.47667483233208</v>
+        <v>24.47667483233207</v>
       </c>
       <c r="AW6" t="n">
-        <v>3929046.83422203</v>
+        <v>198183313.8600409</v>
       </c>
       <c r="AX6" t="n">
-        <v>361472.3087484267</v>
+        <v>18232864.87512376</v>
       </c>
       <c r="AY6" t="n">
-        <v>1340.731270764208</v>
+        <v>67627.23312979963</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3786483.451267675</v>
+        <v>188922411.3432165</v>
       </c>
       <c r="BA6" t="n">
-        <v>348356.4775166261</v>
+        <v>17380861.84357592</v>
       </c>
       <c r="BB6" t="n">
-        <v>1292.083546861298</v>
+        <v>64467.08204896787</v>
       </c>
       <c r="BC6" t="n">
-        <v>200453.0266452581</v>
+        <v>11951773.50436911</v>
       </c>
       <c r="BD6" t="n">
-        <v>668176.7554841937</v>
+        <v>39839245.01456369</v>
       </c>
       <c r="BE6" t="n">
-        <v>21.34298356190464</v>
+        <v>18.59581064682671</v>
       </c>
       <c r="BF6" t="n">
-        <v>18.24124359050851</v>
+        <v>15.43615009952761</v>
       </c>
       <c r="BG6" t="n">
         <v>0</v>
@@ -2588,43 +2588,43 @@
       </c>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="n">
-        <v>546420.1022626294</v>
+        <v>32579649.25635432</v>
       </c>
       <c r="BK6" t="n">
-        <v>546420.1022626294</v>
+        <v>32579649.25635432</v>
       </c>
       <c r="BL6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BM6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BN6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BO6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BP6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BQ6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BR6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BS6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BT6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CD6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CH6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
@@ -2669,85 +2669,85 @@
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CL6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="CM6" t="n">
-        <v>5939348.937637277</v>
+        <v>354126622.3516774</v>
       </c>
       <c r="CN6" t="n">
-        <v>222725.5851613979</v>
+        <v>13279748.3381879</v>
       </c>
       <c r="CO6" t="n">
-        <v>742418.6172046596</v>
+        <v>44265827.79395967</v>
       </c>
       <c r="CP6" t="n">
-        <v>20.26804843389834</v>
+        <v>17.151277888364</v>
       </c>
       <c r="CQ6" t="n">
-        <v>23.71442617989404</v>
+        <v>20.66201182980745</v>
       </c>
       <c r="CR6" t="n">
-        <v>491778.0920363665</v>
+        <v>29321684.33071888</v>
       </c>
       <c r="CS6" t="n">
-        <v>491778.0920363665</v>
+        <v>29321684.33071888</v>
       </c>
       <c r="CT6" t="n">
-        <v>2206.62</v>
+        <v>72128.25</v>
       </c>
       <c r="CU6" t="n">
-        <v>2206.62</v>
+        <v>72128.25</v>
       </c>
       <c r="CV6" t="n">
-        <v>5345414.043873549</v>
+        <v>318713960.1165096</v>
       </c>
       <c r="CW6" t="n">
-        <v>5345414.043873549</v>
+        <v>318713960.1165096</v>
       </c>
       <c r="CX6" t="n">
-        <v>11359.00484323129</v>
+        <v>677267.1652475828</v>
       </c>
       <c r="CY6" t="n">
-        <v>40090.60532905162</v>
+        <v>2390354.700873822</v>
       </c>
       <c r="CZ6" t="n">
         <v>24.32589516296075</v>
       </c>
       <c r="DA6" t="n">
-        <v>24.47667483233208</v>
+        <v>24.47667483233207</v>
       </c>
       <c r="DB6" t="n">
-        <v>348356.4775166261</v>
+        <v>17380861.84357592</v>
       </c>
       <c r="DC6" t="n">
-        <v>361472.3087484267</v>
+        <v>18232864.87512376</v>
       </c>
       <c r="DD6" t="n">
-        <v>1292.083546861298</v>
+        <v>64467.08204896787</v>
       </c>
       <c r="DE6" t="n">
-        <v>1340.731270764208</v>
+        <v>67627.23312979963</v>
       </c>
       <c r="DF6" t="n">
-        <v>3786483.451267675</v>
+        <v>188922411.3432165</v>
       </c>
       <c r="DG6" t="n">
-        <v>3929046.83422203</v>
+        <v>198183313.8600409</v>
       </c>
       <c r="DH6" t="n">
-        <v>200453.0266452581</v>
+        <v>11951773.50436911</v>
       </c>
       <c r="DI6" t="n">
-        <v>668176.7554841937</v>
+        <v>39839245.01456369</v>
       </c>
       <c r="DJ6" t="n">
-        <v>18.24124359050851</v>
+        <v>15.43615009952761</v>
       </c>
       <c r="DK6" t="n">
-        <v>21.34298356190464</v>
+        <v>18.59581064682671</v>
       </c>
     </row>
     <row r="7">
@@ -2755,14 +2755,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1007994</v>
+        <v>1002177</v>
       </c>
       <c r="C7" t="n">
-        <v>322120</v>
+        <v>325193</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>DENCO II, LLC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2771,163 +2771,163 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G7" t="n">
-        <v>4299006.357207554</v>
+        <v>745586.857053885</v>
       </c>
       <c r="H7" t="n">
-        <v>323394.4</v>
+        <v>39582.2</v>
       </c>
       <c r="I7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1960049.001130795</v>
+        <v>745586.857053885</v>
       </c>
       <c r="K7" t="n">
-        <v>11692184.6168533</v>
+        <v>4454282.434351836</v>
       </c>
       <c r="L7" t="n">
-        <v>11692184.6168533</v>
+        <v>4454282.434351836</v>
       </c>
       <c r="M7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="N7" t="n">
-        <v>459546926.4110668</v>
+        <v>174807950.3797753</v>
       </c>
       <c r="O7" t="n">
-        <v>57443.36580138335</v>
+        <v>21850.99379747192</v>
       </c>
       <c r="P7" t="n">
-        <v>976537.218623517</v>
+        <v>371466.8945570226</v>
       </c>
       <c r="Q7" t="n">
-        <v>3446601.948083001</v>
+        <v>1311059.627848315</v>
       </c>
       <c r="R7" t="n">
-        <v>42278317.22981814</v>
+        <v>16082331.43493933</v>
       </c>
       <c r="S7" t="n">
-        <v>156813.8433109036</v>
+        <v>59650.72327746107</v>
       </c>
       <c r="T7" t="n">
-        <v>27.02877240328973</v>
+        <v>27.02877240328974</v>
       </c>
       <c r="U7" t="n">
-        <v>27.19630536925786</v>
+        <v>27.19630536925787</v>
       </c>
       <c r="V7" t="n">
-        <v>1.218636363636364</v>
+        <v>1.608177570093458</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25671875</v>
+        <v>1.687009803921568</v>
       </c>
       <c r="X7" t="n">
-        <v>377099305.5219496</v>
+        <v>108699408.3430828</v>
       </c>
       <c r="Y7" t="n">
-        <v>34693136.10801937</v>
+        <v>10000345.56756361</v>
       </c>
       <c r="Z7" t="n">
-        <v>348073.9669839568</v>
+        <v>37092.12489140396</v>
       </c>
       <c r="AA7" t="n">
-        <v>365672053.8394663</v>
+        <v>103619996.7382658</v>
       </c>
       <c r="AB7" t="n">
-        <v>33641828.9532309</v>
+        <v>9533039.699920453</v>
       </c>
       <c r="AC7" t="n">
-        <v>344174.5801056551</v>
+        <v>35358.84802731965</v>
       </c>
       <c r="AD7" t="n">
-        <v>17233009.740415</v>
+        <v>6555298.139241575</v>
       </c>
       <c r="AE7" t="n">
-        <v>57443365.80138335</v>
+        <v>21850993.79747192</v>
       </c>
       <c r="AF7" t="n">
-        <v>26.02128690426666</v>
+        <v>20.66201182980746</v>
       </c>
       <c r="AG7" t="n">
-        <v>22.62354632302687</v>
+        <v>17.151277888364</v>
       </c>
       <c r="AH7" t="n">
-        <v>3869105.721486799</v>
+        <v>671028.1713484966</v>
       </c>
       <c r="AI7" t="n">
-        <v>1764044.101017716</v>
+        <v>671028.1713484966</v>
       </c>
       <c r="AJ7" t="n">
-        <v>291054.96</v>
+        <v>35623.98</v>
       </c>
       <c r="AK7" t="n">
-        <v>141132.4589798133</v>
+        <v>53685.65094971497</v>
       </c>
       <c r="AL7" t="n">
-        <v>10522966.15516797</v>
+        <v>4008854.190916653</v>
       </c>
       <c r="AM7" t="n">
-        <v>10522966.15516797</v>
+        <v>4008854.190916653</v>
       </c>
       <c r="AN7" t="n">
-        <v>1411235.280814173</v>
+        <v>536822.5370787974</v>
       </c>
       <c r="AO7" t="n">
-        <v>413592233.7699601</v>
+        <v>157327155.3417978</v>
       </c>
       <c r="AP7" t="n">
-        <v>51699.02922124501</v>
+        <v>19665.89441772472</v>
       </c>
       <c r="AQ7" t="n">
-        <v>878883.4967611652</v>
+        <v>334320.2051013203</v>
       </c>
       <c r="AR7" t="n">
-        <v>38050485.50683633</v>
+        <v>14474098.2914454</v>
       </c>
       <c r="AS7" t="n">
-        <v>3101941.753274701</v>
+        <v>1179953.665063483</v>
       </c>
       <c r="AT7" t="n">
-        <v>291054.96</v>
+        <v>35623.98</v>
       </c>
       <c r="AU7" t="n">
         <v>24.32589516296076</v>
       </c>
       <c r="AV7" t="n">
-        <v>24.47667483233209</v>
+        <v>24.47667483233208</v>
       </c>
       <c r="AW7" t="n">
-        <v>339389374.9697547</v>
+        <v>97829467.50877449</v>
       </c>
       <c r="AX7" t="n">
-        <v>31223822.49721743</v>
+        <v>9000311.010807253</v>
       </c>
       <c r="AY7" t="n">
-        <v>115811.7902855611</v>
+        <v>33382.91240226357</v>
       </c>
       <c r="AZ7" t="n">
-        <v>329104848.4555197</v>
+        <v>93257997.06443924</v>
       </c>
       <c r="BA7" t="n">
-        <v>30277646.05790781</v>
+        <v>8579735.72992841</v>
       </c>
       <c r="BB7" t="n">
-        <v>112302.3420950895</v>
+        <v>31822.9632245877</v>
       </c>
       <c r="BC7" t="n">
-        <v>15509708.7663735</v>
+        <v>5899768.325317417</v>
       </c>
       <c r="BD7" t="n">
-        <v>51699029.22124501</v>
+        <v>19665894.41772472</v>
       </c>
       <c r="BE7" t="n">
-        <v>23.41915821384</v>
+        <v>18.59581064682671</v>
       </c>
       <c r="BF7" t="n">
-        <v>20.36119169072418</v>
+        <v>15.4361500995276</v>
       </c>
       <c r="BG7" t="n">
         <v>0</v>
@@ -2937,165 +2937,6447 @@
       </c>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="n">
-        <v>42278317.22981814</v>
+        <v>16082331.43493933</v>
       </c>
       <c r="BK7" t="n">
-        <v>42278317.22981814</v>
+        <v>16082331.43493933</v>
       </c>
       <c r="BL7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BM7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BN7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BO7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BP7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BR7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BS7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BT7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="BU7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="BW7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="BZ7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CA7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CD7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CE7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CH7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CI7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CL7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="CM7" t="n">
-        <v>459546926.4110668</v>
+        <v>174807950.3797753</v>
       </c>
       <c r="CN7" t="n">
-        <v>17233009.740415</v>
+        <v>6555298.139241575</v>
       </c>
       <c r="CO7" t="n">
-        <v>57443365.80138335</v>
+        <v>21850993.79747192</v>
       </c>
       <c r="CP7" t="n">
-        <v>22.62354632302687</v>
+        <v>17.151277888364</v>
       </c>
       <c r="CQ7" t="n">
-        <v>26.02128690426666</v>
+        <v>20.66201182980746</v>
       </c>
       <c r="CR7" t="n">
-        <v>38050485.50683633</v>
+        <v>14474098.2914454</v>
       </c>
       <c r="CS7" t="n">
-        <v>38050485.50683633</v>
+        <v>14474098.2914454</v>
       </c>
       <c r="CT7" t="n">
-        <v>291054.96</v>
+        <v>35623.98</v>
       </c>
       <c r="CU7" t="n">
-        <v>291054.96</v>
+        <v>35623.98</v>
       </c>
       <c r="CV7" t="n">
-        <v>413592233.7699601</v>
+        <v>157327155.3417978</v>
       </c>
       <c r="CW7" t="n">
-        <v>413592233.7699601</v>
+        <v>157327155.3417978</v>
       </c>
       <c r="CX7" t="n">
-        <v>878883.4967611652</v>
+        <v>334320.2051013203</v>
       </c>
       <c r="CY7" t="n">
-        <v>3101941.753274701</v>
+        <v>1179953.665063483</v>
       </c>
       <c r="CZ7" t="n">
         <v>24.32589516296076</v>
       </c>
       <c r="DA7" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>8579735.72992841</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>9000311.010807253</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>31822.9632245877</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>33382.91240226357</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>93257997.06443924</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>97829467.50877449</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>5899768.325317417</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>19665894.41772472</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C8" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>107</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1366654.73049378</v>
+      </c>
+      <c r="H8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1366654.73049378</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8152438.743730606</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8152438.743730606</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="N8" t="n">
+        <v>320421571.3490992</v>
+      </c>
+      <c r="O8" t="n">
+        <v>40052.6964186374</v>
+      </c>
+      <c r="P8" t="n">
+        <v>680895.8391168357</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2403161.785118244</v>
+      </c>
+      <c r="R8" t="n">
+        <v>29478784.56411712</v>
+      </c>
+      <c r="S8" t="n">
+        <v>109339.2974584394</v>
+      </c>
+      <c r="T8" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U8" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X8" t="n">
+        <v>199245143.8869889</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>18330553.23760298</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>67989.56750285058</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>189934623.1446062</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17473985.32930377</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>64812.48490925942</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12015808.92559122</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40052696.41863739</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17.15127788836399</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1229989.257444402</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1229989.257444402</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>65263.23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>98405.36771259541</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7337194.869357545</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>7337194.869357545</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>983991.405955522</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>288379414.2141892</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>36047.42677677366</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>612806.2552051522</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>26530906.10770541</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2162845.60660642</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>65263.23</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>179320629.49829</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>16497497.91384268</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>61190.61075256552</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>170941160.8301456</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>15726586.7963734</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>58331.23641833348</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>10814228.0330321</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>36047426.77677366</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="n">
+        <v>29478784.56411712</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>29478784.56411712</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>320421571.3490992</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>12015808.92559122</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>40052696.41863739</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>17.15127788836399</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>26530906.10770541</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>26530906.10770541</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>65263.23</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>65263.23</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>288379414.2141892</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>288379414.2141892</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>612806.2552051522</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>2162845.60660642</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>15726586.7963734</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>16497497.91384268</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>58331.23641833348</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>61190.61075256552</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>170941160.8301456</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>179320629.49829</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>10814228.0330321</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>36047426.77677366</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C9" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>107</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2131268.375424048</v>
+      </c>
+      <c r="H9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2131268.375424048</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12713551.19139498</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12713551.19139498</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="N9" t="n">
+        <v>499690482.59415</v>
+      </c>
+      <c r="O9" t="n">
+        <v>62461.31032426875</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1061842.275512569</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3747678.619456125</v>
+      </c>
+      <c r="R9" t="n">
+        <v>45971524.3986618</v>
+      </c>
+      <c r="S9" t="n">
+        <v>170512.2600937101</v>
+      </c>
+      <c r="T9" t="n">
+        <v>27.02877240328972</v>
+      </c>
+      <c r="U9" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X9" t="n">
+        <v>310718475.3018978</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>28586099.72777459</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>106028.2541335289</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>296198920.3812484</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>27250300.67507485</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>101073.662818878</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18738393.09728063</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>62461310.32426875</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1918141.537881643</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1918141.537881643</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>101776.59</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>153461.0340843391</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>11442196.07225549</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>11442196.07225549</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1534513.230305315</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>449721434.334735</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>56215.17929184188</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>955658.047961312</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41374371.95879562</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3372910.757510513</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>101776.59</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>279646627.771708</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>25727489.75499714</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>95425.428720176</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>266579028.3431235</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>24525270.60756736</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>90966.29653699021</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>16864553.78755257</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>56215179.29184188</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>18.59581064682672</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v>45971524.3986618</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>45971524.3986618</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>499690482.59415</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>18738393.09728063</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>62461310.32426875</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>41374371.95879562</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>41374371.95879562</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>101776.59</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>101776.59</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>449721434.334735</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>449721434.334735</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>955658.047961312</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>3372910.757510513</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>24525270.60756736</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>25727489.75499714</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>90966.29653699021</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>95425.428720176</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>266579028.3431235</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>279646627.771708</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>16864553.78755257</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>56215179.29184188</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>18.59581064682672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C10" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>107</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3761121.372031662</v>
+      </c>
+      <c r="H10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3761121.372031662</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22436033.70263509</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22436033.70263509</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="N10" t="n">
+        <v>881820691.9209501</v>
+      </c>
+      <c r="O10" t="n">
+        <v>110227.5864901188</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1873868.970332019</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6613655.189407125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>81127503.6567274</v>
+      </c>
+      <c r="S10" t="n">
+        <v>300908.7513459092</v>
+      </c>
+      <c r="T10" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U10" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X10" t="n">
+        <v>548335400.4680614</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>50446856.84306166</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>187111.6454686171</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>522712250.9134791</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>48089527.08404008</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>178368.110633635</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>33068275.94703563</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>110227586.4901188</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>3385009.234828496</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>3385009.234828496</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>179608.59</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>270817.8762113182</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>20192430.33237158</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>20192430.33237158</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2708007.387862797</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>793638622.728855</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>99204.82784110689</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1686482.073298817</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>73014753.29105467</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>5952289.670466414</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>179608.59</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>493501860.4212552</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>45402171.15875548</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>168400.4809217553</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>470441025.8221312</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>43280574.37563606</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>160531.2995702715</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>29761448.35233207</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>99204827.84110689</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="n">
+        <v>81127503.6567274</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>81127503.6567274</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>881820691.9209501</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>33068275.94703563</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>110227586.4901188</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>73014753.29105467</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>73014753.29105467</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>179608.59</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>179608.59</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>793638622.728855</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>793638622.728855</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>1686482.073298817</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>5952289.670466414</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>43280574.37563606</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>45402171.15875548</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>160531.2995702715</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>168400.4809217553</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>470441025.8221312</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>493501860.4212552</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>29761448.35233207</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>99204827.84110689</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C11" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>107</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1464018.092725217</v>
+      </c>
+      <c r="H11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1464018.092725217</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8733235.655170448</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8733235.655170448</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="N11" t="n">
+        <v>343249079.1474708</v>
+      </c>
+      <c r="O11" t="n">
+        <v>42906.13489343385</v>
+      </c>
+      <c r="P11" t="n">
+        <v>729404.2931883755</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2574368.093606031</v>
+      </c>
+      <c r="R11" t="n">
+        <v>31578915.28156732</v>
+      </c>
+      <c r="S11" t="n">
+        <v>117128.8593624401</v>
+      </c>
+      <c r="T11" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U11" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X11" t="n">
+        <v>213439787.7017544</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>19636460.4685614</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>72833.28753032743</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>203465965.8465322</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18718868.85788096</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>69429.86287937756</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12871840.46803016</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>42906134.89343385</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1317616.283452695</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1317616.283452695</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>69912.72</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>105415.9734261961</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>7859912.089653403</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7859912.089653403</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1054093.026762156</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>308924171.2327238</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38615.52140409047</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>656463.8638695379</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>28421023.75341059</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2316931.284245428</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>69912.72</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>24.32589516296077</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>192095808.931579</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>17672814.42170526</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>65549.9587772947</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>183119369.261879</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>16846981.97209287</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>62486.8765914398</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>11584656.42122714</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>38615521.40409047</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>18.59581064682672</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>15.43615009952761</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="n">
+        <v>31578915.28156732</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>31578915.28156732</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>343249079.1474708</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>12871840.46803016</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>42906134.89343385</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>28421023.75341059</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>28421023.75341059</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>69912.72</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>69912.72</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>308924171.2327238</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>308924171.2327238</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>656463.8638695379</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>2316931.284245428</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>24.32589516296077</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>16846981.97209287</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>17672814.42170526</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>62486.8765914398</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>65549.9587772947</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>183119369.261879</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>192095808.931579</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>11584656.42122714</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>38615521.40409047</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>15.43615009952761</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>18.59581064682672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C12" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1644585.375047117</v>
+      </c>
+      <c r="H12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1644585.375047117</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9810364.849110557</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9810364.849110557</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="N12" t="n">
+        <v>385584316.4571279</v>
+      </c>
+      <c r="O12" t="n">
+        <v>48198.03955714098</v>
+      </c>
+      <c r="P12" t="n">
+        <v>819366.6724713967</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2891882.373428459</v>
+      </c>
+      <c r="R12" t="n">
+        <v>35473757.11405576</v>
+      </c>
+      <c r="S12" t="n">
+        <v>131575.1561135756</v>
+      </c>
+      <c r="T12" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U12" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X12" t="n">
+        <v>239764764.5556454</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>22058358.33911938</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>81816.31093507244</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>228560803.5951012</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21027593.93074931</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>77993.11883530268</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14459411.8671423</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>48198039.55714098</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1480126.837542405</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1480126.837542405</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>78535.53000000001</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>118417.640502218</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>8829328.364199501</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>8829328.364199501</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1184101.470033924</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>347025884.8114151</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>43378.23560142689</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>737430.0052242571</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>31926381.40265018</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2602694.136085613</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>78535.53000000001</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>24.32589516296075</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>215788288.1000809</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19852522.50520744</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>73634.67984156517</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>205704723.2355911</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>18924834.53767438</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>70193.80695177242</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>13013470.68042807</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>43378235.60142688</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="n">
+        <v>35473757.11405576</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>35473757.11405576</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>385584316.4571279</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>14459411.8671423</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>48198039.55714098</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>31926381.40265018</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>31926381.40265018</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>78535.53000000001</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>78535.53000000001</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>347025884.8114151</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>347025884.8114151</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>737430.0052242571</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>2602694.136085613</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>24.32589516296075</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>18924834.53767438</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>19852522.50520744</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>70193.80695177242</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>73634.67984156517</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>205704723.2355911</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>215788288.1000809</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>13013470.68042807</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>43378235.60142688</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C13" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>107</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1538199.426570367</v>
+      </c>
+      <c r="H13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1538199.426570367</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9252647.064121678</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9252647.064121678</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="N13" t="n">
+        <v>360641401.4546912</v>
+      </c>
+      <c r="O13" t="n">
+        <v>45080.1751818364</v>
+      </c>
+      <c r="P13" t="n">
+        <v>766362.9780912187</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2704810.510910184</v>
+      </c>
+      <c r="R13" t="n">
+        <v>33179008.93383159</v>
+      </c>
+      <c r="S13" t="n">
+        <v>123063.7416309324</v>
+      </c>
+      <c r="T13" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U13" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X13" t="n">
+        <v>224254714.256295</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20631433.71157914</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>76523.72718006551</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>213775522.0013279</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19667348.02412217</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>72947.85207819329</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13524052.55455092</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>45080175.1818364</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1384379.48391333</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1384379.48391333</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>73533.33</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>110757.3674678392</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>8327382.357709511</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>8327382.357709511</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1107503.587130665</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>324577261.309222</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>40572.15766365276</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>689726.680282097</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>29861108.04044843</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2434329.459819166</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>73533.33</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>24.32589516296075</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>201829242.8306655</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>18568290.34042122</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>68871.35446205895</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>192397969.8011951</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>17700613.22170995</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>65653.06687037395</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>12171647.29909583</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>40572157.66365276</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v>33179008.93383159</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>33179008.93383159</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>360641401.4546912</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>13524052.55455092</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>45080175.1818364</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>29861108.04044843</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>29861108.04044843</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>73533.33</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>73533.33</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>324577261.309222</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>324577261.309222</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>689726.680282097</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>2434329.459819166</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>24.32589516296075</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>17700613.22170995</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>18568290.34042122</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>65653.06687037395</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>68871.35446205895</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>192397969.8011951</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>201829242.8306655</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>12171647.29909583</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>40572157.66365276</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C14" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>107</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3648833.396155296</v>
+      </c>
+      <c r="H14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3648833.396155296</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21766207.72203879</v>
+      </c>
+      <c r="L14" t="n">
+        <v>21766207.72203879</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="N14" t="n">
+        <v>855494006.1303734</v>
+      </c>
+      <c r="O14" t="n">
+        <v>106936.7507662967</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1817924.763027043</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6416205.0459778</v>
+      </c>
+      <c r="R14" t="n">
+        <v>78705448.56399435</v>
+      </c>
+      <c r="S14" t="n">
+        <v>291925.1447908606</v>
+      </c>
+      <c r="T14" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U14" t="n">
+        <v>27.19630536925787</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X14" t="n">
+        <v>531964891.2157487</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>48940769.99184888</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>181525.4423514286</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>507106718.7290315</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>46653818.1230709</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>173042.9450452871</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>32081025.229889</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>106936750.7662967</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17.15127788836401</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3283950.056539766</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3283950.056539766</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>174246.39</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>262732.6303117745</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19589586.94983491</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>19589586.94983491</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2627160.045231814</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>769944605.517336</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>96243.07568966701</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1636132.286724339</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>70834903.70759492</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>5774584.541380021</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>174246.39</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>478768402.0941738</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>44046692.99266399</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>163372.8981162858</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>456396046.8561283</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41988436.31076381</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>155738.6505407584</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>28872922.7069001</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>96243075.689667</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>18.59581064682672</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="n">
+        <v>78705448.56399435</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>78705448.56399435</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>855494006.1303734</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>32081025.229889</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>106936750.7662967</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>17.15127788836401</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>70834903.70759492</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>70834903.70759492</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>174246.39</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>174246.39</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>769944605.517336</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>769944605.517336</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>1636132.286724339</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>5774584.541380021</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>41988436.31076381</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>44046692.99266399</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>155738.6505407584</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>163372.8981162858</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>456396046.8561283</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>478768402.0941738</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>28872922.7069001</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>96243075.689667</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>18.59581064682672</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C15" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>107</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3006176.027139088</v>
+      </c>
+      <c r="H15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3006176.027139088</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17932595.09317916</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17932595.09317916</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="N15" t="n">
+        <v>704818579.9056013</v>
+      </c>
+      <c r="O15" t="n">
+        <v>88102.32248820015</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1497739.482299403</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5286139.349292009</v>
+      </c>
+      <c r="R15" t="n">
+        <v>64843309.35131531</v>
+      </c>
+      <c r="S15" t="n">
+        <v>240509.3016617528</v>
+      </c>
+      <c r="T15" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U15" t="n">
+        <v>27.19630536925787</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X15" t="n">
+        <v>438271614.4117352</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>40320988.52587964</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>149553.9461154006</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>417791632.4298785</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>38436830.18354882</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>142565.4439604753</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>26430696.74646005</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>88102322.48820016</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2705558.424425179</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2705558.424425179</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>143556.93</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>216458.3714955776</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>16139335.58386124</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>16139335.58386124</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2164446.739540143</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>634336721.9150412</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>79292.09023938014</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1347965.534069462</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>58358978.41618379</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>4757525.414362809</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>143556.93</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>394444452.9705618</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>36288889.67329168</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>134598.5515038605</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>376012469.1868907</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>34593147.16519394</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>128308.8995644278</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>23787627.07181404</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>79292090.23938014</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>15.43615009952761</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="n">
+        <v>64843309.35131531</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>64843309.35131531</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>704818579.9056013</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>26430696.74646005</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>88102322.48820016</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>58358978.41618379</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>58358978.41618379</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>143556.93</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>143556.93</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>634336721.9150412</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>634336721.9150412</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>1347965.534069462</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>4757525.414362809</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>34593147.16519394</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>36288889.67329168</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>128308.8995644278</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>134598.5515038605</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>376012469.1868907</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>394444452.9705618</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>23787627.07181404</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>79292090.23938014</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>15.43615009952761</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C16" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>107</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1538071.993969091</v>
+      </c>
+      <c r="H16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1538071.993969091</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9174985.776949074</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9174985.776949074</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="N16" t="n">
+        <v>360611524.0076441</v>
+      </c>
+      <c r="O16" t="n">
+        <v>45076.44050095551</v>
+      </c>
+      <c r="P16" t="n">
+        <v>766299.4885162438</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2704586.430057331</v>
+      </c>
+      <c r="R16" t="n">
+        <v>33176260.20870326</v>
+      </c>
+      <c r="S16" t="n">
+        <v>123053.5463776721</v>
+      </c>
+      <c r="T16" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U16" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X16" t="n">
+        <v>224236135.8060028</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>20629724.49415226</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>76517.38754851616</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>213757811.7029185</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>19665718.67666851</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>72941.80869110885</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13522932.15028665</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>45076440.50095551</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1384264.794572182</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1384264.794572182</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>73449.09</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>110748.1917399049</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>8257487.199254167</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>8257487.199254167</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1107411.835657746</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>324550371.6068797</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>40568.79645085996</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>689669.5396646194</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>29858634.18783293</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>2434127.787051598</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>73449.09</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV16" t="n">
         <v>24.47667483233209</v>
       </c>
-      <c r="DB7" t="n">
-        <v>30277646.05790781</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>31223822.49721743</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>112302.3420950895</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>115811.7902855611</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>329104848.4555197</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>339389374.9697547</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>15509708.7663735</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>51699029.22124501</v>
-      </c>
-      <c r="DJ7" t="n">
+      <c r="AW16" t="n">
+        <v>201812522.2254025</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>18566752.04473703</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>68865.64879366454</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>192382030.5326267</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>17699146.80900165</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>65647.62782199797</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>12170638.93525799</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>40568796.45085996</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="n">
+        <v>33176260.20870326</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>33176260.20870326</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>360611524.0076441</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>13522932.15028665</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>45076440.50095551</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>29858634.18783293</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>29858634.18783293</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>73449.09</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>73449.09</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>324550371.6068797</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>324550371.6068797</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>689669.5396646194</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>2434127.787051598</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>24.47667483233209</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>17699146.80900165</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>18566752.04473703</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>65647.62782199797</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>68865.64879366454</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>192382030.5326267</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>201812522.2254025</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>12170638.93525799</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>40568796.45085996</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C17" t="n">
+        <v>311313</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>972200.0915025722</v>
+      </c>
+      <c r="H17" t="n">
+        <v>69411.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>869336.6384585929</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3992949.477291849</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3992949.477291849</v>
+      </c>
+      <c r="M17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="N17" t="n">
+        <v>203821935.0586104</v>
+      </c>
+      <c r="O17" t="n">
+        <v>25477.7418823263</v>
+      </c>
+      <c r="P17" t="n">
+        <v>433121.6119995472</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1528664.512939578</v>
+      </c>
+      <c r="R17" t="n">
+        <v>18751618.02539216</v>
+      </c>
+      <c r="S17" t="n">
+        <v>69551.33230292976</v>
+      </c>
+      <c r="T17" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U17" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.360486211901306</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.411709337349398</v>
+      </c>
+      <c r="X17" t="n">
+        <v>149815509.5403468</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13783026.8777119</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>56478.50880834096</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>144379533.1419307</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13282917.04905763</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>54623.55928699332</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7643322.564697891</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>25477741.8823263</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23.71442617989405</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>874980.082352315</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>782402.9746127337</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>62470.53</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>62596.19907263678</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3593654.529562664</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3593654.529562664</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>625922.3796901871</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>183439741.5527494</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>22929.96769409367</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>389809.4507995924</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>16876456.22285294</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1375798.061645621</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>62470.53</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>134833958.5863121</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>12404724.18994071</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>46010.16792750685</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>129941579.8277376</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>11954625.34415186</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>44340.71335829398</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>6878990.308228102</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>22929967.69409367</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>21.34298356190464</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>18.2412435905085</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="n">
+        <v>18751618.02539216</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>18751618.02539216</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>5356.100000000006</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>203821935.0586104</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>7643322.564697891</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>25477741.8823263</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>23.71442617989405</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>16876456.22285294</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>16876456.22285294</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>62470.53</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>62470.53</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>183439741.5527494</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>183439741.5527494</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>389809.4507995924</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>1375798.061645621</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>11954625.34415186</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>12404724.18994071</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>44340.71335829398</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>46010.16792750685</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>129941579.8277376</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>134833958.5863121</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>6878990.308228102</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>22929967.69409367</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>18.2412435905085</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>21.34298356190464</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C18" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>107</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1492830.757632868</v>
+      </c>
+      <c r="H18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1492830.757632868</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8905110.43850976</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8905110.43850976</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="N18" t="n">
+        <v>350004405.9747003</v>
+      </c>
+      <c r="O18" t="n">
+        <v>43750.55074683754</v>
+      </c>
+      <c r="P18" t="n">
+        <v>743759.3626962382</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2625033.044810253</v>
+      </c>
+      <c r="R18" t="n">
+        <v>32200405.34967243</v>
+      </c>
+      <c r="S18" t="n">
+        <v>119434.0184261122</v>
+      </c>
+      <c r="T18" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U18" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X18" t="n">
+        <v>217640397.7294374</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>20022916.59110824</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>74266.68587298565</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>207470285.6860057</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19087266.28311253</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>70796.27999107043</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13125165.22405126</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>43750550.74683754</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1343547.681869581</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1343547.681869581</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>71288.64</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>107490.6165835009</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>8014599.394658784</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>8014599.394658784</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1074838.145495665</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>315003965.3772303</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>39375.49567215379</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>669383.4264266144</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>28980364.81470519</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2362529.740329227</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>71288.64</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>195876357.9564936</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>18020624.93199741</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>66840.01728568708</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>186723257.1174052</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>17178539.65480128</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>63716.65199196339</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11812648.70164614</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>39375495.67215379</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="n">
+        <v>32200405.34967243</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>32200405.34967243</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>350004405.9747003</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>13125165.22405126</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>43750550.74683754</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>20.66201182980745</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>28980364.81470519</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>28980364.81470519</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>71288.64</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>71288.64</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>315003965.3772303</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>315003965.3772303</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>669383.4264266144</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>2362529.740329227</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>17178539.65480128</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>18020624.93199741</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>63716.65199196339</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>66840.01728568708</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>186723257.1174052</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>195876357.9564936</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>11812648.70164614</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>39375495.67215379</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C19" t="n">
+        <v>311313</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2813033.199070778</v>
+      </c>
+      <c r="H19" t="n">
+        <v>250965.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2669065.57348795</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7944633.866411301</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7650728.818843063</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="N19" t="n">
+        <v>625780722.8178219</v>
+      </c>
+      <c r="O19" t="n">
+        <v>78222.59035222774</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1329784.035987871</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4693355.421133664</v>
+      </c>
+      <c r="R19" t="n">
+        <v>57571826.49923961</v>
+      </c>
+      <c r="S19" t="n">
+        <v>213538.7586667466</v>
+      </c>
+      <c r="T19" t="n">
+        <v>27.02877240328974</v>
+      </c>
+      <c r="U19" t="n">
+        <v>27.19630536925787</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.360486211901306</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.411709337349398</v>
+      </c>
+      <c r="X19" t="n">
+        <v>459968441.6818021</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>42317096.63472579</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>173322.4793934</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>443278730.445162</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>40781643.20095491</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>167627.3531454538</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>23466777.10566832</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>78222590.35222773</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>23.71442617989405</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2531729.8791637</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2402159.016139156</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>225868.77</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>192184.882800072</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>7150170.479770171</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>6885655.936958757</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1921727.212911325</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>563202650.5360397</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>70400.33131700497</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1196805.632389084</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51814643.84931565</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>4224019.879020298</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>225868.77</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>24.47667483233209</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>413971597.5136219</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>38085386.97125321</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>141261.9114540601</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>398950857.4006458</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>36703478.88085941</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>136136.2978309084</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>21120099.39510149</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>70400331.31700496</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>21.34298356190464</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>18.24124359050851</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="n">
+        <v>57571826.49923961</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>57571826.49923961</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>16364.79999999999</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>625780722.8178219</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>23466777.10566832</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>78222590.35222773</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>23.71442617989405</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>51814643.84931565</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>51814643.84931565</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>225868.77</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>225868.77</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>563202650.5360397</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>563202650.5360397</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>1196805.632389084</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>4224019.879020298</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>24.47667483233209</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>36703478.88085941</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>38085386.97125321</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>136136.2978309084</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>141261.9114540601</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>398950857.4006458</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>413971597.5136219</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>21120099.39510149</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>70400331.31700496</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>18.24124359050851</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>21.34298356190464</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C20" t="n">
+        <v>311313</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2778313.448155623</v>
+      </c>
+      <c r="H20" t="n">
+        <v>245763.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2657560.654796554</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8000331.830517477</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7754026.872047478</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="N20" t="n">
+        <v>623083315.7529014</v>
+      </c>
+      <c r="O20" t="n">
+        <v>77885.41446911267</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1324052.045974915</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4673124.86814676</v>
+      </c>
+      <c r="R20" t="n">
+        <v>57323665.04926693</v>
+      </c>
+      <c r="S20" t="n">
+        <v>212618.3069250113</v>
+      </c>
+      <c r="T20" t="n">
+        <v>27.02877240328974</v>
+      </c>
+      <c r="U20" t="n">
+        <v>27.19630536925789</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.360486211901306</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.411709337349398</v>
+      </c>
+      <c r="X20" t="n">
+        <v>457985762.9590602</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>42134690.19223354</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>170000.8185185574</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>441367992.1695442</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>40605855.27959806</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>164330.2409235445</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23365624.3407338</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>77885414.46911266</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23.71442617989405</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>2500482.103340061</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2391804.589316898</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>221187.33</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>191356.4762325102</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>7200298.64746573</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>6978624.184842731</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1913443.671453519</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>560774984.1776114</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>70096.87302220141</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1191646.841377424</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51591298.54434025</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4205812.381332085</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>221187.33</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>24.32589516296077</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>24.47667483233209</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>412187186.6631542</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>37921221.17301019</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>140653.0066667017</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>397231192.9525899</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>36545269.75163827</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>135549.48683119</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>21029061.90666042</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>70096873.02220142</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>21.34298356190466</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>18.24124359050851</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="n">
+        <v>57323665.04926693</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>57323665.04926693</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>13719.69999999998</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>232044</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>623083315.7529014</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>23365624.3407338</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>77885414.46911266</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>23.71442617989405</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>51591298.54434025</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>51591298.54434025</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>221187.33</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>221187.33</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>560774984.1776114</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>560774984.1776114</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>1191646.841377424</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>4205812.381332085</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>24.32589516296077</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>24.47667483233209</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>36545269.75163827</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>37921221.17301019</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>135549.48683119</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>140653.0066667017</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>397231192.9525899</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>412187186.6631542</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>21029061.90666042</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>70096873.02220142</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>18.24124359050851</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>21.34298356190466</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C21" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>107</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3554809.649453449</v>
+      </c>
+      <c r="H21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3554809.649453449</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21205332.45607757</v>
+      </c>
+      <c r="L21" t="n">
+        <v>21205332.45607757</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="N21" t="n">
+        <v>833449494.0893178</v>
+      </c>
+      <c r="O21" t="n">
+        <v>104181.1867611647</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1771080.1749398</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6250871.205669883</v>
+      </c>
+      <c r="R21" t="n">
+        <v>76677353.45621723</v>
+      </c>
+      <c r="S21" t="n">
+        <v>284402.7690368354</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27.02877240328974</v>
+      </c>
+      <c r="U21" t="n">
+        <v>27.19630536925787</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X21" t="n">
+        <v>518257131.294825</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>47679656.0791239</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>176847.864518038</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>494039508.3371229</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>45451634.76701531</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>168583.9456153259</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>31254356.02834941</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>104181186.7611647</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>17.15127788836401</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3199328.684508104</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3199328.684508104</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>169756.38</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>255962.4921331518</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19084799.21046982</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>19084799.21046982</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2559462.947606483</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>750104544.6803861</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>93763.06808504825</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1593972.15744582</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>69009618.11059552</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5625784.085102894</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>169756.38</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>466431418.1653426</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>42911690.47121152</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>159163.0780662342</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>444635557.5034106</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>40906471.29031378</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151725.5510537933</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>28128920.42551447</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>93763068.08504824</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>15.43615009952761</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v>76677353.45621723</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>76677353.45621723</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>833449494.0893178</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>31254356.02834941</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>104181186.7611647</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>17.15127788836401</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>69009618.11059552</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>69009618.11059552</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>169756.38</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>169756.38</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>750104544.6803861</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>750104544.6803861</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>1593972.15744582</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>5625784.085102894</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>40906471.29031378</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>42911690.47121152</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>151725.5510537933</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>159163.0780662342</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>444635557.5034106</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>466431418.1653426</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>28128920.42551447</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>93763068.08504824</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>15.43615009952761</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C22" t="n">
+        <v>322130</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>80</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1181230.682246513</v>
+      </c>
+      <c r="H22" t="n">
+        <v>62676.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1181230.682246513</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7046337.721123219</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7046337.721123219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="N22" t="n">
+        <v>276947631.9702525</v>
+      </c>
+      <c r="O22" t="n">
+        <v>34618.45399628158</v>
+      </c>
+      <c r="P22" t="n">
+        <v>588513.7179367868</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2077107.239776894</v>
+      </c>
+      <c r="R22" t="n">
+        <v>25479182.14126323</v>
+      </c>
+      <c r="S22" t="n">
+        <v>94504.43484472652</v>
+      </c>
+      <c r="T22" t="n">
+        <v>27.02877240328972</v>
+      </c>
+      <c r="U22" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.9821875</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.114333333333333</v>
+      </c>
+      <c r="X22" t="n">
+        <v>139718181.034969</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12854072.65521714</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>47676.83927213067</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>130985794.7202834</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12050693.11426607</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>44697.03681762249</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>10385536.19888447</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>34618453.99628158</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>17.49853122277218</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.9210993979841</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1063107.614021862</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1063107.614021862</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>56408.49</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>85053.99136025387</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>6341703.949010897</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>6341703.949010897</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>850486.0912174897</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>249252868.7732273</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>31156.60859665342</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>529662.3461431081</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>22931263.92713691</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1869396.515799205</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>56408.49</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>125746362.9314721</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>11568665.38969543</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>42909.15534491761</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>117887215.2482551</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>10845623.80283947</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>40227.33313586026</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>9346982.578996025</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>31156608.59665342</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>15.74867810049496</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>12.52898945818569</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="n">
+        <v>25479182.14126323</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>25479182.14126323</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>276947631.9702525</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>10385536.19888447</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>34618453.99628158</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>13.9210993979841</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>17.49853122277218</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>22931263.92713691</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>22931263.92713691</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>56408.49</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>56408.49</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>249252868.7732273</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>249252868.7732273</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>529662.3461431081</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>1869396.515799205</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>10845623.80283947</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>11568665.38969543</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>40227.33313586026</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>42909.15534491761</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>117887215.2482551</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>125746362.9314721</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>9346982.578996025</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>31156608.59665342</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>12.52898945818569</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>15.74867810049496</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C23" t="n">
+        <v>311313</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1301900.178044576</v>
+      </c>
+      <c r="H23" t="n">
+        <v>82810</v>
+      </c>
+      <c r="I23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1278356.870957962</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6695364.25410319</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6695364.25410319</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="N23" t="n">
+        <v>299719532.8108014</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37464.94160135017</v>
+      </c>
+      <c r="P23" t="n">
+        <v>636904.0072229529</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2247896.49608101</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27574197.01859373</v>
+      </c>
+      <c r="S23" t="n">
+        <v>102275.0216663801</v>
+      </c>
+      <c r="T23" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U23" t="n">
+        <v>27.19630536925787</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.360486211901306</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.411709337349398</v>
+      </c>
+      <c r="X23" t="n">
+        <v>220303249.0802957</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>20267898.9153872</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>76401.24596947423</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>212309662.3937828</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>19532488.94022802</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>73673.54836535688</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11239482.48040505</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>37464941.60135017</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23.71442617989404</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1171710.160240118</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1150521.183862165</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>74529</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>92047.51949974213</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>6025827.828692871</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>6025827.828692871</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>920416.9470897322</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>269747579.5297213</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>33718.44744121515</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>573213.6065006576</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>24816777.31673435</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2023106.846472909</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>74529</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>198272924.1722661</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>18241109.02384848</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>67657.8113725268</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>191078696.1544045</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>17579240.04620521</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>65202.8835288212</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>10115534.23236455</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>33718447.44121516</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>21.34298356190465</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>18.24124359050851</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="n">
+        <v>27574197.01859373</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>27574197.01859373</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>1225.899999999994</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>299719532.8108014</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>11239482.48040505</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>37464941.60135017</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>20.26804843389834</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>23.71442617989404</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>24816777.31673435</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>24816777.31673435</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>74529</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>74529</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>269747579.5297213</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>269747579.5297213</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>573213.6065006576</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>2023106.846472909</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>17579240.04620521</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>18241109.02384848</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>65202.8835288212</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>67657.8113725268</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>191078696.1544045</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>198272924.1722661</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>10115534.23236455</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>33718447.44121516</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>18.24124359050851</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>21.34298356190465</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C24" t="n">
+        <v>325193</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>107</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1003724.085940445</v>
+      </c>
+      <c r="H24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1003724.085940445</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5987466.288050659</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5987466.288050659</v>
+      </c>
+      <c r="M24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="N24" t="n">
+        <v>235329993.4810705</v>
+      </c>
+      <c r="O24" t="n">
+        <v>29416.24918513381</v>
+      </c>
+      <c r="P24" t="n">
+        <v>500076.2361472748</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1764974.951108029</v>
+      </c>
+      <c r="R24" t="n">
+        <v>21650359.40025849</v>
+      </c>
+      <c r="S24" t="n">
+        <v>80303.00847031815</v>
+      </c>
+      <c r="T24" t="n">
+        <v>27.02877240328973</v>
+      </c>
+      <c r="U24" t="n">
+        <v>27.19630536925786</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.608177570093458</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.687009803921568</v>
+      </c>
+      <c r="X24" t="n">
+        <v>146333338.9654194</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>13462667.18481859</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>49934.16769620249</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>139495332.4717082</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12833570.58739716</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>47600.79537395004</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8824874.755540144</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>29416249.18513381</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>903351.6773464002</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>903351.6773464002</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>47931.84</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>72272.70762328633</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>5388719.659245593</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>5388719.659245593</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>722681.3418771203</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>211796994.1329634</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26474.62426662043</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>450068.6125325473</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>19485323.46023264</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1588477.455997226</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>47931.84</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>131700005.0688775</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>12116400.46633673</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>44940.75092658224</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>125545799.2245374</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>11550213.52865744</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>42840.71583655503</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>7942387.279986129</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>26474624.26662043</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>18.59581064682671</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="n">
+        <v>21650359.40025849</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>21650359.40025849</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>235329993.4810705</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>8824874.755540144</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>29416249.18513381</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>17.151277888364</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>20.66201182980746</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>19485323.46023264</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>19485323.46023264</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>47931.84</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>47931.84</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>211796994.1329634</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>211796994.1329634</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>450068.6125325473</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>1588477.455997226</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>11550213.52865744</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>12116400.46633673</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>42840.71583655503</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>44940.75092658224</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>125545799.2245374</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>131700005.0688775</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>7942387.279986129</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>26474624.26662043</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>15.4361500995276</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>18.59581064682671</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C25" t="n">
+        <v>322120</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>165</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4667770.020984411</v>
+      </c>
+      <c r="H25" t="n">
+        <v>342961</v>
+      </c>
+      <c r="I25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2328812.664907651</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13891952.49733932</v>
+      </c>
+      <c r="L25" t="n">
+        <v>13891952.49733932</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="N25" t="n">
+        <v>546006095.6272297</v>
+      </c>
+      <c r="O25" t="n">
+        <v>68250.76195340371</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1160262.953207863</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4095045.717204222</v>
+      </c>
+      <c r="R25" t="n">
+        <v>50232560.79770513</v>
+      </c>
+      <c r="S25" t="n">
+        <v>186316.8033679721</v>
+      </c>
+      <c r="T25" t="n">
+        <v>27.02877240328974</v>
+      </c>
+      <c r="U25" t="n">
+        <v>27.19630536925787</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.218636363636364</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.25671875</v>
+      </c>
+      <c r="X25" t="n">
+        <v>448046777.4635977</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>41220303.52665099</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>372283.7812792013</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>434469602.3889432</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>39971203.41978277</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>367650.7636646801</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>20475228.58602111</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>68250761.95340371</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>26.02128690426667</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>22.62354632302686</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>4200993.01888597</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2095931.398416886</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>308664.9</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>167685.1230311749</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>12502757.24760539</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>12502757.24760539</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1676745.118733509</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>491405486.0645067</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>61425.68575806334</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1044236.657887077</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>45209304.71793462</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3685541.1454838</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>308664.9</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>403242099.7172379</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>37098273.17398589</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>137600.6231512812</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>391022642.1500489</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>35974083.0778045</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>133430.907298212</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>18427705.727419</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>61425685.75806334</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>23.41915821384</v>
+      </c>
+      <c r="BF25" t="n">
         <v>20.36119169072418</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="n">
+        <v>50232560.79770513</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>50232560.79770513</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>219394.2</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>546006095.6272297</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>20475228.58602111</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>68250761.95340371</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>22.62354632302686</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>26.02128690426667</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>45209304.71793462</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>45209304.71793462</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>308664.9</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>308664.9</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>491405486.0645067</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>491405486.0645067</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>1044236.657887077</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>3685541.1454838</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>24.32589516296076</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>24.47667483233208</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>35974083.0778045</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>37098273.17398589</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>133430.907298212</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>137600.6231512812</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>391022642.1500489</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>403242099.7172379</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>18427705.727419</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>61425685.75806334</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>20.36119169072418</v>
+      </c>
+      <c r="DK25" t="n">
         <v>23.41915821384</v>
       </c>
     </row>
